--- a/cursoemvideo/Anotações/Guia de tags.xlsx
+++ b/cursoemvideo/Anotações/Guia de tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19140" windowHeight="11925" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="18135" windowHeight="11925" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1358">
   <si>
     <t>TAG</t>
   </si>
@@ -26397,6 +26397,425 @@
     </r>
   </si>
   <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>cria uma condição para ser testada</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">while True:
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> try:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                dados['idade'] = int(input("Informe a idade da pessoa: "))
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ValueError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+                print("Apenas valores numéricos para a idade.")
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">O programa vai testar se a proposta estabelecida no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> foi cumprida.
+É</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">importante estabelecer um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> para que o programa finalize o teste, do contrário vai ficar rodando eternamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>O except, neste caso, vai ignorar o erro ValueError; que acontece quando não inserimos nada e damos enter ou quando inserimos um valor não numérico.
+Ao invés de travar no erro, quando ele acontecer, o programa irá rodar o teste novamente até que a condição seja cumprida.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Precisam sempre estar dentro de um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>while</t>
+    </r>
+  </si>
+  <si>
+    <t>except</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">cria uma exceção para o teste do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">while True:
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+                while dados['sexo'] == "" or dados['sexo'] not in 'fm':
+                    dados['sexo'] = str(input("Informe o sexo da pessoa (M/F): ")).strip().lower()[0]
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TypeError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AttributeError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IndexError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>continue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>É</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">necessário ter pelo menos um </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> em cada </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Essas são as exceções dos testes.
+Via de regra, podemos usar essa parte para informar ao programa que ele deve rodar o teste novamente quando acontecer um erro específico, ao invés de travar.</t>
+    </r>
+  </si>
+  <si>
+    <t>É importante ter cuidado ao excetuar os erros, pois isso pode ignorar alguns bugs em programas mais complexos.
+Este exemplo é semelhante ao de cima, mas excetuando erros relacionados a texto ao invés de números.</t>
+  </si>
+  <si>
     <t>** ou __</t>
   </si>
   <si>
@@ -27707,12 +28126,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="83">
+  <fonts count="85">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -27931,23 +28350,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -27962,18 +28395,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27986,21 +28419,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28015,14 +28441,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28036,28 +28471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -28066,9 +28479,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28076,7 +28488,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28212,6 +28631,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF70AD47"/>
       <name val="Calibri"/>
@@ -28272,25 +28704,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28308,13 +28746,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28326,13 +28788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28344,19 +28818,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28374,61 +28848,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28446,13 +28872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28476,6 +28908,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -28492,44 +28939,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28549,159 +28978,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -28787,7 +29219,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -28819,6 +29251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -30393,7 +30828,7 @@
   <cols>
     <col min="1" max="1" width="16.85" style="11" customWidth="1"/>
     <col min="2" max="2" width="43.5666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.1416666666667" style="51" customWidth="1"/>
+    <col min="3" max="3" width="40.1416666666667" style="52" customWidth="1"/>
     <col min="4" max="4" width="30.2833333333333" style="22" customWidth="1"/>
     <col min="5" max="5" width="32.4166666666667" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.85" style="4" customWidth="1"/>
@@ -30401,17 +30836,17 @@
     <col min="8" max="1024" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="50" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="52" t="s">
+    <row r="1" s="51" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -30438,7 +30873,7 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -30452,7 +30887,7 @@
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="55" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="22" t="s">
@@ -30466,7 +30901,7 @@
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -30480,7 +30915,7 @@
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="22" t="s">
@@ -30491,7 +30926,7 @@
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="22" t="s">
@@ -30505,7 +30940,7 @@
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="22" t="s">
@@ -30519,7 +30954,7 @@
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="55" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -30530,13 +30965,13 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="55" t="s">
         <v>36</v>
       </c>
     </row>
@@ -30547,7 +30982,7 @@
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -30564,7 +30999,7 @@
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="52" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -30578,7 +31013,7 @@
       <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="57" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -30592,7 +31027,7 @@
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="55" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -30606,7 +31041,7 @@
       <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="55" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -30623,7 +31058,7 @@
       <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="55" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="22" t="s">
@@ -30640,7 +31075,7 @@
       <c r="B17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -30657,7 +31092,7 @@
       <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="55" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -30674,7 +31109,7 @@
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="55" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -30691,7 +31126,7 @@
       <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="55" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -30708,7 +31143,7 @@
       <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="55" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -30725,7 +31160,7 @@
       <c r="B22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="55" t="s">
         <v>81</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -30742,7 +31177,7 @@
       <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="55" t="s">
         <v>85</v>
       </c>
       <c r="D23" s="22" t="s">
@@ -30759,7 +31194,7 @@
       <c r="B24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="55" t="s">
         <v>89</v>
       </c>
       <c r="D24" s="22" t="s">
@@ -30776,7 +31211,7 @@
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="55" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="22" t="s">
@@ -30790,7 +31225,7 @@
       <c r="B26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="55" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="22" t="s">
@@ -30804,7 +31239,7 @@
       <c r="B27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="55" t="s">
         <v>99</v>
       </c>
       <c r="D27" s="22" t="s">
@@ -30821,7 +31256,7 @@
       <c r="B28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="55" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="22" t="s">
@@ -30838,7 +31273,7 @@
       <c r="B29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="55" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="22" t="s">
@@ -30855,7 +31290,7 @@
       <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="55" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="22" t="s">
@@ -30872,7 +31307,7 @@
       <c r="B31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="55" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="22" t="s">
@@ -30889,7 +31324,7 @@
       <c r="B32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="55" t="s">
         <v>119</v>
       </c>
       <c r="D32" s="22" t="s">
@@ -30909,7 +31344,7 @@
       <c r="B33" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="55" t="s">
         <v>124</v>
       </c>
       <c r="D33" s="22" t="s">
@@ -30927,7 +31362,7 @@
       <c r="B34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="54" t="s">
+      <c r="C34" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D34" s="22" t="s">
@@ -30942,7 +31377,7 @@
       <c r="B35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="55" t="s">
         <v>131</v>
       </c>
       <c r="D35" s="22" t="s">
@@ -30960,7 +31395,7 @@
       <c r="B36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="55" t="s">
         <v>135</v>
       </c>
       <c r="D36" s="22" t="s">
@@ -30977,7 +31412,7 @@
       <c r="B37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="54" t="s">
+      <c r="C37" s="55" t="s">
         <v>139</v>
       </c>
       <c r="D37" s="22" t="s">
@@ -30991,7 +31426,7 @@
       <c r="B38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="55" t="s">
         <v>142</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -31005,7 +31440,7 @@
       <c r="B39" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="54" t="s">
+      <c r="C39" s="55" t="s">
         <v>145</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -31022,7 +31457,7 @@
       <c r="B40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="55" t="s">
         <v>149</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -31030,13 +31465,13 @@
       </c>
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:5">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="58" t="s">
         <v>150</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="55" t="s">
         <v>152</v>
       </c>
       <c r="D41" s="22" t="s">
@@ -31047,11 +31482,11 @@
       </c>
     </row>
     <row r="42" ht="75" spans="1:5">
-      <c r="A42" s="57"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="55" t="s">
         <v>155</v>
       </c>
       <c r="D42" s="22" t="s">
@@ -31062,11 +31497,11 @@
       </c>
     </row>
     <row r="43" ht="30" spans="1:5">
-      <c r="A43" s="57"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="55" t="s">
         <v>158</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -31074,11 +31509,11 @@
       </c>
     </row>
     <row r="44" ht="45" spans="1:5">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="55" t="s">
         <v>161</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -31092,7 +31527,7 @@
       <c r="B45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="57" t="s">
         <v>165</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -31106,7 +31541,7 @@
       <c r="B46" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="55" t="s">
         <v>169</v>
       </c>
       <c r="D46" s="22" t="s">
@@ -31123,7 +31558,7 @@
       <c r="B47" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="55" t="s">
         <v>174</v>
       </c>
       <c r="D47" s="22" t="s">
@@ -31140,7 +31575,7 @@
       <c r="B48" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="55" t="s">
         <v>178</v>
       </c>
       <c r="D48" s="22" t="s">
@@ -31157,7 +31592,7 @@
       <c r="B49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="55" t="s">
         <v>182</v>
       </c>
       <c r="D49" s="22" t="s">
@@ -31174,7 +31609,7 @@
       <c r="B50" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="55" t="s">
         <v>186</v>
       </c>
       <c r="D50" s="22" t="s">
@@ -31191,7 +31626,7 @@
       <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="55" t="s">
         <v>190</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -31205,7 +31640,7 @@
       <c r="B52" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="55" t="s">
         <v>194</v>
       </c>
       <c r="D52" s="22" t="s">
@@ -31225,7 +31660,7 @@
       <c r="B53" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="54" t="s">
+      <c r="C53" s="55" t="s">
         <v>200</v>
       </c>
       <c r="D53" s="22" t="s">
@@ -31248,7 +31683,7 @@
       <c r="B54" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="55" t="s">
         <v>206</v>
       </c>
       <c r="D54" s="22" t="s">
@@ -31265,7 +31700,7 @@
       <c r="B55" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="55" t="s">
         <v>210</v>
       </c>
       <c r="D55" s="22" t="s">
@@ -31282,7 +31717,7 @@
       <c r="B56" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="55" t="s">
         <v>214</v>
       </c>
       <c r="D56" s="22" t="s">
@@ -31296,7 +31731,7 @@
       <c r="B57" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="54" t="s">
+      <c r="C57" s="55" t="s">
         <v>218</v>
       </c>
       <c r="D57" s="22" t="s">
@@ -31316,7 +31751,7 @@
       <c r="B58" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="54" t="s">
+      <c r="C58" s="55" t="s">
         <v>223</v>
       </c>
       <c r="D58" s="22" t="s">
@@ -31327,13 +31762,13 @@
       </c>
     </row>
     <row r="59" ht="45" spans="1:5">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="50" t="s">
         <v>225</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="55" t="s">
         <v>227</v>
       </c>
       <c r="D59" s="22" t="s">
@@ -31344,13 +31779,13 @@
       </c>
     </row>
     <row r="60" ht="90" spans="1:5">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="50" t="s">
         <v>229</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="55" t="s">
         <v>231</v>
       </c>
       <c r="E60" s="9"/>
@@ -31362,7 +31797,7 @@
       <c r="B61" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C61" s="55" t="s">
         <v>234</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -31376,7 +31811,7 @@
       </c>
     </row>
     <row r="62" ht="210" spans="3:6">
-      <c r="C62" s="54" t="s">
+      <c r="C62" s="55" t="s">
         <v>238</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -31393,7 +31828,7 @@
       <c r="B63" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="54" t="s">
+      <c r="C63" s="55" t="s">
         <v>243</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -31410,7 +31845,7 @@
       <c r="B64" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="54" t="s">
+      <c r="C64" s="55" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -31427,7 +31862,7 @@
       <c r="B65" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="54" t="s">
+      <c r="C65" s="55" t="s">
         <v>253</v>
       </c>
       <c r="E65" s="9" t="s">
@@ -31441,7 +31876,7 @@
       <c r="B66" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="54" t="s">
+      <c r="C66" s="55" t="s">
         <v>257</v>
       </c>
     </row>
@@ -31452,7 +31887,7 @@
       <c r="B67" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="59" t="s">
         <v>260</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -31466,7 +31901,7 @@
       <c r="B68" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="58"/>
+      <c r="C68" s="59"/>
     </row>
     <row r="69" ht="94" customHeight="1" spans="1:3">
       <c r="A69" s="11" t="s">
@@ -31475,7 +31910,7 @@
       <c r="B69" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="58"/>
+      <c r="C69" s="59"/>
     </row>
     <row r="70" ht="88" customHeight="1" spans="1:5">
       <c r="A70" s="11" t="s">
@@ -31484,7 +31919,7 @@
       <c r="B70" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="59" t="s">
         <v>268</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -31498,7 +31933,7 @@
       <c r="B71" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C71" s="58"/>
+      <c r="C71" s="59"/>
     </row>
     <row r="72" ht="95" customHeight="1" spans="1:3">
       <c r="A72" s="11" t="s">
@@ -31507,7 +31942,7 @@
       <c r="B72" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="58"/>
+      <c r="C72" s="59"/>
     </row>
     <row r="73" ht="60" spans="1:5">
       <c r="A73" s="11" t="s">
@@ -31516,7 +31951,7 @@
       <c r="B73" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="55" t="s">
         <v>276</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -31530,7 +31965,7 @@
       <c r="B74" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C74" s="60" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -31547,7 +31982,7 @@
       <c r="B75" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="52" t="s">
         <v>285</v>
       </c>
     </row>
@@ -31708,7 +32143,7 @@
       <c r="C8" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="47" t="s">
         <v>311</v>
       </c>
       <c r="F8" s="9" t="s">
@@ -31804,7 +32239,7 @@
       <c r="C14" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="48" t="s">
         <v>336</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -31821,7 +32256,7 @@
       <c r="C15" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="48"/>
       <c r="F15" s="9" t="s">
         <v>341</v>
       </c>
@@ -31930,7 +32365,7 @@
       </c>
     </row>
     <row r="22" ht="180" spans="2:6">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>363</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -31981,7 +32416,7 @@
       <c r="C25" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="41" t="s">
         <v>376</v>
       </c>
       <c r="E25" s="22" t="s">
@@ -31998,7 +32433,7 @@
       <c r="C26" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="41" t="s">
         <v>381</v>
       </c>
       <c r="E26" s="22" t="s">
@@ -32015,7 +32450,7 @@
       <c r="C27" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="41" t="s">
         <v>385</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -32032,7 +32467,7 @@
       <c r="C28" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="41" t="s">
         <v>389</v>
       </c>
       <c r="E28" s="22"/>
@@ -32047,7 +32482,7 @@
       <c r="C29" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="41" t="s">
         <v>393</v>
       </c>
       <c r="E29" s="22"/>
@@ -32062,7 +32497,7 @@
       <c r="C30" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="41" t="s">
         <v>397</v>
       </c>
       <c r="E30" s="22"/>
@@ -32092,7 +32527,7 @@
       <c r="C32" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>405</v>
       </c>
       <c r="E32" s="22" t="s">
@@ -32125,7 +32560,7 @@
       <c r="C34" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="50" t="s">
         <v>413</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -32142,7 +32577,7 @@
       <c r="C35" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="41" t="s">
         <v>417</v>
       </c>
       <c r="E35" s="22" t="s">
@@ -32159,7 +32594,7 @@
       <c r="C36" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="41" t="s">
         <v>421</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -32547,13 +32982,13 @@
       </c>
     </row>
     <row r="62" ht="90" spans="2:7">
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="49" t="s">
         <v>511</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="49" t="s">
         <v>513</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -33073,7 +33508,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2833333333333" style="40" customWidth="1"/>
+    <col min="1" max="1" width="17.2833333333333" style="41" customWidth="1"/>
     <col min="2" max="2" width="25" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.2833333333333" style="5" customWidth="1"/>
     <col min="4" max="4" width="38.4166666666667" style="5" customWidth="1"/>
@@ -33105,13 +33540,13 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" ht="75" spans="1:5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>645</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>647</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -33125,7 +33560,7 @@
       <c r="C3" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="41" t="s">
         <v>651</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -33145,7 +33580,7 @@
       <c r="C4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>656</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -33154,7 +33589,7 @@
       <c r="F4" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="41" t="s">
         <v>658</v>
       </c>
     </row>
@@ -33228,7 +33663,7 @@
       <c r="F9" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="46" t="s">
         <v>678</v>
       </c>
     </row>
@@ -33244,7 +33679,7 @@
       </c>
     </row>
     <row r="11" ht="123" spans="4:6">
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="42" t="s">
         <v>682</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -33278,7 +33713,7 @@
       <c r="C13" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="43" t="s">
         <v>692</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -33287,7 +33722,7 @@
       <c r="F13" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="41" t="s">
         <v>695</v>
       </c>
     </row>
@@ -33343,7 +33778,7 @@
       <c r="C17" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="44" t="s">
         <v>711</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -33357,7 +33792,7 @@
       <c r="C18" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="44" t="s">
         <v>715</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -33512,7 +33947,7 @@
       <c r="C28" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="41" t="s">
         <v>757</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -33529,7 +33964,7 @@
       <c r="C29" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="41" t="s">
         <v>762</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -33543,7 +33978,7 @@
       <c r="C30" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="41" t="s">
         <v>766</v>
       </c>
       <c r="F30" s="23" t="s">
@@ -33571,7 +34006,7 @@
       <c r="C32" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="45" t="s">
         <v>774</v>
       </c>
     </row>
@@ -33582,7 +34017,7 @@
       <c r="C33" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="12" t="s">
@@ -33591,7 +34026,7 @@
       <c r="C34" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="45"/>
     </row>
     <row r="35" ht="60" spans="2:6">
       <c r="B35" s="12" t="s">
@@ -33669,15 +34104,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="$A93:$XFD93"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.7083333333333" style="12" customWidth="1"/>
     <col min="2" max="2" width="17.85" style="13" customWidth="1"/>
@@ -33686,10 +34121,11 @@
     <col min="5" max="5" width="30.4333333333333" style="14" customWidth="1"/>
     <col min="6" max="6" width="34.4333333333333" style="15" customWidth="1"/>
     <col min="7" max="7" width="35.7166666666667" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="9.14166666666667" style="5"/>
+    <col min="8" max="8" width="20.25" style="5" customWidth="1"/>
+    <col min="9" max="1024" width="9.14166666666667" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>644</v>
       </c>
@@ -33709,6 +34145,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
@@ -35040,14 +35477,53 @@
         <v>1148</v>
       </c>
     </row>
+    <row r="93" ht="135" spans="1:8">
+      <c r="A93" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="94" ht="150" spans="1:8">
+      <c r="A94" s="12" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H94" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="7">
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="G88:G90"/>
+    <mergeCell ref="H93:H94"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -35102,47 +35578,47 @@
     </row>
     <row r="2" ht="60" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1150</v>
+        <v>1161</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1151</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>1152</v>
+        <v>1163</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1153</v>
+        <v>1164</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1155</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>1156</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1157</v>
+        <v>1168</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1158</v>
+        <v>1169</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1159</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -35150,212 +35626,212 @@
         <v>820</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="8" ht="90" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1170</v>
+        <v>1181</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="9" ht="75" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1179</v>
+        <v>1190</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1180</v>
+        <v>1191</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" ht="75" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="16" ht="105" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="17" ht="105" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="18" ht="75" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -35396,7 +35872,7 @@
         <v>644</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -35414,68 +35890,68 @@
     </row>
     <row r="2" ht="30" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1231</v>
+        <v>1242</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1233</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -35483,399 +35959,399 @@
         <v>535</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="10" ht="45" spans="2:3">
       <c r="B10" s="3" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="11" ht="45" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="14" ht="135" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="15" ht="45" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="16" ht="45" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="17" ht="30" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="19" ht="150" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1273</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1275</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="26" ht="30" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="27" ht="120" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="28" ht="60" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="29" ht="45" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="30" ht="105" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="32" ht="45" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="33" ht="255" spans="2:7">
       <c r="B33" s="3" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="34" ht="45" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="35" ht="60" spans="2:7">
       <c r="B35" s="3" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="36" ht="45" spans="2:6">
       <c r="B36" s="3" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="37" ht="105" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="38" ht="150" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="39" ht="165" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
     </row>
   </sheetData>

--- a/cursoemvideo/Anotações/Guia de tags.xlsx
+++ b/cursoemvideo/Anotações/Guia de tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="18135" windowHeight="11925" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="18525" windowHeight="12345" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1369">
   <si>
     <t>TAG</t>
   </si>
@@ -18464,70 +18464,6 @@
     <t>Toda mensagem de texto deve estar entre aspas, sejam simples ou duplas.</t>
   </si>
   <si>
-    <t>help()</t>
-  </si>
-  <si>
-    <t>pedir ajuda à linguagem e receber instruções sobre alguam coisa</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>help</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">No caso, ele vai mostrar instruções sobre o código </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>print</t>
-    </r>
-  </si>
-  <si>
     <t>interatividade para receber algum dado do usuário</t>
   </si>
   <si>
@@ -20251,6 +20187,43 @@
     </r>
   </si>
   <si>
+    <t>:.1%</t>
+  </si>
+  <si>
+    <t>vai formarar a informação com 1 casa decimal depois da vírgula e em percentual</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>print(f"A precisão é de {precisao</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="9" tint="-0.5"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:.1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}")</t>
+    </r>
+  </si>
+  <si>
+    <t>Assim não precisa colocar o "%" como um texto fora das {} formatadas</t>
+  </si>
+  <si>
     <t>, end=""</t>
   </si>
   <si>
@@ -22618,6 +22591,77 @@
     <t>biblioteca</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Atenção ao </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Esse "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" é uma espécie de buffer de tela. Com ele ativado, o programa executa com o sleep mas só imprime na tela quando termina a contagem.
+Para a contagem funcionar normalmente, basta ativá-lo como no exemplo:
+print(f"{cont} ", end="", </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flush=False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) 
+sleep(0.3)</t>
+    </r>
+  </si>
+  <si>
     <t>condição</t>
   </si>
   <si>
@@ -23128,12 +23172,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>\033[</t>
     </r>
     <r>
@@ -23553,7 +23591,7 @@
   <si>
     <t>É possível adicionar um terceiro parâmetro, que será o valor do incremento em cada repetição.
 Ex: em "range(0, 9, 3)", o incremento vai aumentar de 3 e 3 após cada repetição. Ou seja, o programa irá repetir 3 vezes.
-(por padrão, o intreento vai de 1 em 1).
+(por padrão, o incremento vai de 1 em 1).
 Também é possível usar valores negativos no incremento para "contar para trás".</t>
   </si>
   <si>
@@ -26576,6 +26614,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Precisam sempre estar dentro de um </t>
     </r>
     <r>
@@ -26615,6 +26660,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">while True:
             </t>
     </r>
@@ -26814,6 +26865,177 @@
   <si>
     <t>É importante ter cuidado ao excetuar os erros, pois isso pode ignorar alguns bugs em programas mais complexos.
 Este exemplo é semelhante ao de cima, mas excetuando erros relacionados a texto ao invés de números.</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>definir uma função</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mostraLinha</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>print('--------------------')</t>
+    </r>
+  </si>
+  <si>
+    <t>Na prática, é como a "function" do JavaScript</t>
+  </si>
+  <si>
+    <t>Deixa-se 2 linhas em branco entre o "def" e o programa principal por questões de organização. Alguns editores de texto notificam se isso não for feito.</t>
+  </si>
+  <si>
+    <t>Empacotamento:</t>
+  </si>
+  <si>
+    <t>help()</t>
+  </si>
+  <si>
+    <t>abre o dicionário de ajudas e explicações do python</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Uma vez executado o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>help()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, basta escrever o comando a ser consultado no novo prompt aberto.
+Para sair do help, basta digitar "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>quit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Também é possível acessar o menu de ajuda direto pelo código.
+Ex: "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>help(print)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">" vai abrir a explicação de como funciona o comando </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>print</t>
+    </r>
   </si>
   <si>
     <t>** ou __</t>
@@ -28126,12 +28348,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="85">
+  <fonts count="88">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -28194,6 +28416,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -28213,6 +28442,11 @@
     <font>
       <sz val="10.5"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -28240,15 +28474,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -28266,13 +28494,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -28284,6 +28505,20 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -28350,6 +28585,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -28366,14 +28653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28381,14 +28661,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -28403,69 +28675,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28480,6 +28707,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -28488,23 +28723,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF4472C4"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -28562,6 +28791,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="9" tint="-0.5"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -28604,6 +28840,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFC55A11"/>
       <name val="Calibri"/>
@@ -28628,13 +28878,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -28704,49 +28947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28770,7 +28983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28782,7 +29019,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28794,91 +29121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28895,6 +29138,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -28922,6 +29189,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -28933,32 +29209,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28980,160 +29230,153 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -29181,6 +29424,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -29195,13 +29441,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29220,10 +29466,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -29231,22 +29474,25 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -29255,34 +29501,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -29300,7 +29552,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -29310,60 +29562,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
-    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
-    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
-    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
-    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
-    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
-    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
-    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
-    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
-    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
-    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
-    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
-    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
-    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
-    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
-    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
-    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
-    <cellStyle name="Saída" xfId="25" builtinId="21"/>
-    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
-    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bom" xfId="29" builtinId="26"/>
-    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
-    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
-    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
-    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
-    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
-    <cellStyle name="Título" xfId="36" builtinId="15"/>
-    <cellStyle name="Observação" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
-    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
-    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
-    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
-    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
-    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
-    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
-    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -29470,7 +29722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11405870" y="74367390"/>
+          <a:off x="9999980" y="82177890"/>
           <a:ext cx="800735" cy="460375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29509,7 +29761,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12334240" y="74331830"/>
+          <a:off x="10928350" y="82142330"/>
           <a:ext cx="501015" cy="762635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29548,7 +29800,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11567795" y="75220195"/>
+          <a:off x="10161905" y="83030695"/>
           <a:ext cx="1038860" cy="483870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29592,7 +29844,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13264515" y="27281505"/>
+          <a:off x="11654155" y="30929580"/>
           <a:ext cx="935990" cy="337185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29631,7 +29883,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12945745" y="27698700"/>
+          <a:off x="11335385" y="31508700"/>
           <a:ext cx="969010" cy="342265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29670,7 +29922,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14198600" y="27680285"/>
+          <a:off x="12588240" y="31490285"/>
           <a:ext cx="963930" cy="332105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29709,7 +29961,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12926695" y="30323790"/>
+          <a:off x="11316335" y="34562415"/>
           <a:ext cx="1388110" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29748,7 +30000,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12960985" y="37396420"/>
+          <a:off x="11350625" y="42387520"/>
           <a:ext cx="1334770" cy="474345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29787,7 +30039,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12980035" y="38037770"/>
+          <a:off x="11369675" y="43028870"/>
           <a:ext cx="1639570" cy="537845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29826,7 +30078,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12961620" y="38973760"/>
+          <a:off x="11351260" y="44079160"/>
           <a:ext cx="1238885" cy="478155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29865,7 +30117,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12988925" y="39561770"/>
+          <a:off x="11378565" y="44829095"/>
           <a:ext cx="944880" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29904,7 +30156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12967335" y="39996110"/>
+          <a:off x="11356975" y="45415835"/>
           <a:ext cx="890270" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29943,7 +30195,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12970510" y="40460930"/>
+          <a:off x="11360150" y="46033055"/>
           <a:ext cx="1001395" cy="381635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29982,7 +30234,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12952730" y="41055925"/>
+          <a:off x="11342370" y="46789975"/>
           <a:ext cx="1143000" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30021,7 +30273,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12951460" y="45980350"/>
+          <a:off x="11341100" y="54409975"/>
           <a:ext cx="887095" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30060,7 +30312,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13919835" y="45953045"/>
+          <a:off x="12309475" y="54382670"/>
           <a:ext cx="871220" cy="661670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30075,16 +30327,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704880</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>2280960</xdr:rowOff>
+      <xdr:rowOff>2071370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1361880</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1114200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>2457000</xdr:rowOff>
+      <xdr:rowOff>2247410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -30099,7 +30351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5624195" y="48181895"/>
+          <a:off x="11724005" y="56401970"/>
           <a:ext cx="656590" cy="175895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30138,7 +30390,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13037820" y="46792515"/>
+          <a:off x="11427460" y="55222140"/>
           <a:ext cx="1848485" cy="603250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30177,7 +30429,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12981305" y="61117480"/>
+          <a:off x="11370945" y="70471030"/>
           <a:ext cx="1181100" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30216,7 +30468,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12951460" y="65786000"/>
+          <a:off x="11341100" y="75711050"/>
           <a:ext cx="812165" cy="339725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30255,7 +30507,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12988290" y="67059175"/>
+          <a:off x="11377930" y="77308075"/>
           <a:ext cx="865505" cy="357505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30294,7 +30546,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14098270" y="67073780"/>
+          <a:off x="12487910" y="77322680"/>
           <a:ext cx="940435" cy="513715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30333,7 +30585,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12924790" y="68611750"/>
+          <a:off x="11314430" y="78746350"/>
           <a:ext cx="828040" cy="414020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30372,7 +30624,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12994640" y="72954515"/>
+          <a:off x="11384280" y="83460590"/>
           <a:ext cx="662305" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30413,7 +30665,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12955905" y="77694155"/>
+          <a:off x="11345545" y="89238455"/>
           <a:ext cx="512445" cy="280670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30455,8 +30707,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13110210" y="78503145"/>
-          <a:ext cx="949325" cy="520065"/>
+          <a:off x="11499850" y="90428445"/>
+          <a:ext cx="949325" cy="710565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30477,8 +30729,8 @@
       <xdr:rowOff>94615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2442210</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
@@ -30497,8 +30749,50 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14151610" y="78517115"/>
-          <a:ext cx="1167765" cy="534035"/>
+          <a:off x="12541250" y="90442415"/>
+          <a:ext cx="1106805" cy="724535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198755</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>273685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>737870</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13846810" y="99127310"/>
+          <a:ext cx="539115" cy="335915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30542,7 +30836,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10047605" y="24705945"/>
+          <a:off x="8805545" y="28896945"/>
           <a:ext cx="919480" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30824,29 +31118,29 @@
       <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99166666666667" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.85" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.5666666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.1416666666667" style="52" customWidth="1"/>
-    <col min="4" max="4" width="30.2833333333333" style="22" customWidth="1"/>
-    <col min="5" max="5" width="32.4166666666667" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.85" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.2833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.847619047619" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.5619047619048" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40.1428571428571" style="55" customWidth="1"/>
+    <col min="4" max="4" width="30.2857142857143" style="24" customWidth="1"/>
+    <col min="5" max="5" width="32.4190476190476" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.847619047619" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.2857142857143" style="4" customWidth="1"/>
     <col min="8" max="1024" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="53" t="s">
+    <row r="1" s="54" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -30862,7 +31156,7 @@
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -30873,10 +31167,10 @@
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>11</v>
       </c>
     </row>
@@ -30887,38 +31181,38 @@
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="30" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="30" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -30926,10 +31220,10 @@
       <c r="A7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -30940,52 +31234,52 @@
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="75" spans="1:5">
+    <row r="9" ht="90" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="56" t="s">
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="59" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="105" spans="1:5">
+    <row r="11" ht="120" spans="1:5">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="24" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -30999,21 +31293,21 @@
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="45" spans="1:5">
+    <row r="13" ht="60" spans="1:5">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="60" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -31027,10 +31321,10 @@
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -31041,10 +31335,10 @@
       <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -31058,10 +31352,10 @@
       <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="9" t="s">
@@ -31075,10 +31369,10 @@
       <c r="B17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -31092,10 +31386,10 @@
       <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -31109,10 +31403,10 @@
       <c r="B19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -31126,10 +31420,10 @@
       <c r="B20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -31143,10 +31437,10 @@
       <c r="B21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -31160,44 +31454,44 @@
       <c r="B22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="15.75" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24" ht="18.75" spans="1:5">
+    <row r="24" ht="33.75" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="9" t="s">
@@ -31211,10 +31505,10 @@
       <c r="B25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -31225,24 +31519,24 @@
       <c r="B26" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="30" spans="1:5">
+    <row r="27" ht="45" spans="1:5">
       <c r="A27" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -31256,10 +31550,10 @@
       <c r="B28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -31273,44 +31567,44 @@
       <c r="B29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" ht="45" spans="1:5">
+    <row r="30" ht="60" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" ht="30" spans="1:5">
+    <row r="31" ht="45" spans="1:5">
       <c r="A31" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -31324,16 +31618,16 @@
       <c r="B32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="22" t="s">
         <v>121</v>
       </c>
     </row>
@@ -31344,16 +31638,16 @@
       <c r="B33" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="11" t="s">
@@ -31362,13 +31656,13 @@
       <c r="B34" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" ht="30" spans="1:6">
       <c r="A35" s="11" t="s">
@@ -31377,16 +31671,16 @@
       <c r="B35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" ht="45" spans="1:5">
       <c r="A36" s="11" t="s">
@@ -31395,10 +31689,10 @@
       <c r="B36" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -31412,10 +31706,10 @@
       <c r="B37" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -31426,10 +31720,10 @@
       <c r="B38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>51</v>
       </c>
     </row>
@@ -31440,10 +31734,10 @@
       <c r="B39" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -31457,51 +31751,51 @@
       <c r="B40" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" ht="75" customHeight="1" spans="1:5">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="61" t="s">
         <v>150</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" ht="75" spans="1:5">
-      <c r="A42" s="58"/>
+    <row r="42" ht="90" spans="1:5">
+      <c r="A42" s="61"/>
       <c r="B42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="43" ht="30" spans="1:5">
-      <c r="A43" s="58"/>
+    <row r="43" ht="45" spans="1:5">
+      <c r="A43" s="61"/>
       <c r="B43" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="58" t="s">
         <v>158</v>
       </c>
       <c r="E43" s="4" t="s">
@@ -31509,25 +31803,25 @@
       </c>
     </row>
     <row r="44" ht="45" spans="1:5">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="58" t="s">
         <v>161</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" ht="75" spans="1:5">
+    <row r="45" ht="90" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>163</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="60" t="s">
         <v>165</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -31541,10 +31835,10 @@
       <c r="B46" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="24" t="s">
         <v>170</v>
       </c>
       <c r="E46" s="11" t="s">
@@ -31558,27 +31852,27 @@
       <c r="B47" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" ht="195" spans="1:5">
+    <row r="48" ht="240" spans="1:5">
       <c r="A48" s="11" t="s">
         <v>176</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -31592,27 +31886,27 @@
       <c r="B49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" ht="195" spans="1:5">
+    <row r="50" ht="225" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>184</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -31626,24 +31920,24 @@
       <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="58" t="s">
         <v>190</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="52" ht="120" spans="1:6">
+    <row r="52" ht="135" spans="1:6">
       <c r="A52" s="11" t="s">
         <v>192</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="24" t="s">
         <v>195</v>
       </c>
       <c r="E52" s="9" t="s">
@@ -31653,17 +31947,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" ht="210" spans="1:7">
+    <row r="53" ht="240" spans="1:7">
       <c r="A53" s="11" t="s">
         <v>198</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="24" t="s">
         <v>195</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -31683,27 +31977,27 @@
       <c r="B54" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="55" ht="60" spans="1:5">
+    <row r="55" ht="75" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>208</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -31717,24 +32011,24 @@
       <c r="B56" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="24" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="57" ht="120" spans="1:6">
+    <row r="57" ht="135" spans="1:6">
       <c r="A57" s="11" t="s">
         <v>216</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E57" s="9" t="s">
@@ -31744,60 +32038,60 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" ht="30" spans="1:5">
       <c r="A58" s="11" t="s">
         <v>221</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="59" ht="45" spans="1:5">
-      <c r="A59" s="50" t="s">
+    <row r="59" ht="60" spans="1:5">
+      <c r="A59" s="53" t="s">
         <v>225</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="60" ht="90" spans="1:5">
-      <c r="A60" s="50" t="s">
+    <row r="60" ht="105" spans="1:5">
+      <c r="A60" s="53" t="s">
         <v>229</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="58" t="s">
         <v>231</v>
       </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" ht="300" spans="1:7">
+    <row r="61" ht="345" spans="1:7">
       <c r="A61" s="11" t="s">
         <v>232</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="58" t="s">
         <v>234</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -31810,8 +32104,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" ht="210" spans="3:6">
-      <c r="C62" s="55" t="s">
+    <row r="62" ht="255" spans="3:6">
+      <c r="C62" s="58" t="s">
         <v>238</v>
       </c>
       <c r="E62" s="9" t="s">
@@ -31821,14 +32115,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" ht="135" spans="1:6">
+    <row r="63" ht="165" spans="1:6">
       <c r="A63" s="11" t="s">
         <v>241</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="58" t="s">
         <v>243</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -31845,7 +32139,7 @@
       <c r="B64" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="58" t="s">
         <v>248</v>
       </c>
       <c r="E64" s="9" t="s">
@@ -31855,14 +32149,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" ht="60" spans="1:5">
+    <row r="65" ht="75" spans="1:5">
       <c r="A65" s="11" t="s">
         <v>251</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="58" t="s">
         <v>253</v>
       </c>
       <c r="E65" s="9" t="s">
@@ -31876,7 +32170,7 @@
       <c r="B66" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="58" t="s">
         <v>257</v>
       </c>
     </row>
@@ -31887,7 +32181,7 @@
       <c r="B67" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="62" t="s">
         <v>260</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -31901,7 +32195,7 @@
       <c r="B68" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="62"/>
     </row>
     <row r="69" ht="94" customHeight="1" spans="1:3">
       <c r="A69" s="11" t="s">
@@ -31910,7 +32204,7 @@
       <c r="B69" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C69" s="59"/>
+      <c r="C69" s="62"/>
     </row>
     <row r="70" ht="88" customHeight="1" spans="1:5">
       <c r="A70" s="11" t="s">
@@ -31919,7 +32213,7 @@
       <c r="B70" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C70" s="59" t="s">
+      <c r="C70" s="62" t="s">
         <v>268</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -31933,7 +32227,7 @@
       <c r="B71" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C71" s="59"/>
+      <c r="C71" s="62"/>
     </row>
     <row r="72" ht="95" customHeight="1" spans="1:3">
       <c r="A72" s="11" t="s">
@@ -31942,7 +32236,7 @@
       <c r="B72" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C72" s="59"/>
+      <c r="C72" s="62"/>
     </row>
     <row r="73" ht="60" spans="1:5">
       <c r="A73" s="11" t="s">
@@ -31951,7 +32245,7 @@
       <c r="B73" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="58" t="s">
         <v>276</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -31965,7 +32259,7 @@
       <c r="B74" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="63" t="s">
         <v>280</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -31982,7 +32276,7 @@
       <c r="B75" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="55" t="s">
         <v>285</v>
       </c>
     </row>
@@ -32013,14 +32307,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.1416666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1416666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.2833333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.5666666666667" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.1428571428571" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.1428571428571" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.2857142857143" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.5714285714286" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.4166666666667" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="9.14166666666667" style="4"/>
+    <col min="7" max="7" width="25.4190476190476" style="4" customWidth="1"/>
+    <col min="8" max="1024" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
@@ -32044,7 +32338,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="60" spans="1:6">
+    <row r="2" ht="75" spans="1:6">
       <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
@@ -32061,9 +32355,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" ht="195" spans="1:7">
+    <row r="3" ht="210" spans="1:7">
       <c r="A3" s="11"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="33" t="s">
         <v>291</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -32080,7 +32374,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="2:6">
+    <row r="4" ht="60" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>296</v>
       </c>
@@ -32143,14 +32437,14 @@
       <c r="C8" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="50" t="s">
         <v>311</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" ht="90" spans="2:6">
+    <row r="9" ht="105" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>313</v>
       </c>
@@ -32167,7 +32461,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" ht="90" spans="2:6">
+    <row r="10" ht="105" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>317</v>
       </c>
@@ -32212,7 +32506,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" ht="165" spans="2:7">
+    <row r="13" ht="180" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>328</v>
       </c>
@@ -32232,14 +32526,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="14" ht="75" spans="2:7">
+    <row r="14" ht="90" spans="2:7">
       <c r="B14" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="51" t="s">
         <v>336</v>
       </c>
       <c r="F14" s="9" t="s">
@@ -32256,13 +32550,13 @@
       <c r="C15" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="51"/>
       <c r="F15" s="9" t="s">
         <v>341</v>
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" ht="45" spans="2:6">
+    <row r="16" ht="60" spans="2:6">
       <c r="B16" s="2" t="s">
         <v>342</v>
       </c>
@@ -32296,7 +32590,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="2:6">
+    <row r="18" ht="45" spans="2:6">
       <c r="B18" s="2" t="s">
         <v>350</v>
       </c>
@@ -32347,7 +32641,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="21" ht="105" spans="2:6">
+    <row r="21" ht="120" spans="2:6">
       <c r="B21" s="2" t="s">
         <v>359</v>
       </c>
@@ -32364,8 +32658,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="22" ht="180" spans="2:6">
-      <c r="B22" s="49" t="s">
+    <row r="22" ht="225" spans="2:6">
+      <c r="B22" s="52" t="s">
         <v>363</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -32416,62 +32710,62 @@
       <c r="C25" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="24" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="26" ht="45" spans="2:6">
+    <row r="26" ht="60" spans="2:6">
       <c r="B26" s="2" t="s">
         <v>379</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="27" ht="60" spans="2:6">
+    <row r="27" ht="90" spans="2:6">
       <c r="B27" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="44" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="24" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="28" ht="60" spans="2:6">
+    <row r="28" ht="75" spans="2:6">
       <c r="B28" s="2" t="s">
         <v>387</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="44" t="s">
         <v>389</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
         <v>390</v>
       </c>
     </row>
@@ -32482,26 +32776,26 @@
       <c r="C29" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="44" t="s">
         <v>393</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="30" ht="30" spans="2:6">
+    <row r="30" ht="45" spans="2:6">
       <c r="B30" s="2" t="s">
         <v>395</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>398</v>
       </c>
     </row>
@@ -32512,11 +32806,11 @@
       <c r="C31" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
         <v>402</v>
       </c>
     </row>
@@ -32527,10 +32821,10 @@
       <c r="C32" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -32547,23 +32841,23 @@
       <c r="C33" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" ht="42" spans="2:6">
-      <c r="B34" s="32" t="s">
+    <row r="34" ht="57" spans="2:6">
+      <c r="B34" s="33" t="s">
         <v>411</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="53" t="s">
         <v>413</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -32577,10 +32871,10 @@
       <c r="C35" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="44" t="s">
         <v>417</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -32594,24 +32888,24 @@
       <c r="C36" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="37" ht="90" spans="2:6">
+    <row r="37" ht="105" spans="2:6">
       <c r="B37" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>424</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="4" t="s">
         <v>425</v>
       </c>
@@ -32623,27 +32917,27 @@
       <c r="C38" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="24"/>
     </row>
-    <row r="39" ht="135" spans="2:6">
+    <row r="39" ht="150" spans="2:6">
       <c r="B39" s="2" t="s">
         <v>429</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="E39" s="22"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="40" ht="105" spans="2:6">
+    <row r="40" ht="120" spans="2:6">
       <c r="B40" s="2" t="s">
         <v>433</v>
       </c>
@@ -32653,14 +32947,14 @@
       <c r="D40" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="41" ht="255" spans="2:6">
+    <row r="41" ht="285" spans="2:6">
       <c r="B41" s="2" t="s">
         <v>437</v>
       </c>
@@ -32670,14 +32964,14 @@
       <c r="D41" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="42" ht="255" spans="2:6">
+    <row r="42" ht="270" spans="2:6">
       <c r="B42" s="2" t="s">
         <v>441</v>
       </c>
@@ -32687,7 +32981,7 @@
       <c r="D42" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F42" s="9" t="s">
@@ -32704,7 +32998,7 @@
       <c r="D43" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="24" t="s">
         <v>377</v>
       </c>
     </row>
@@ -32718,7 +33012,7 @@
       <c r="D44" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="24" t="s">
         <v>377</v>
       </c>
     </row>
@@ -32732,7 +33026,7 @@
       <c r="D45" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F45" s="4" t="s">
@@ -32749,7 +33043,7 @@
       <c r="D46" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F46" s="4" t="s">
@@ -32766,11 +33060,11 @@
       <c r="D47" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="E47" s="22" t="s">
+      <c r="E47" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="48" ht="45" spans="2:6">
+    <row r="48" ht="60" spans="2:6">
       <c r="B48" s="2" t="s">
         <v>462</v>
       </c>
@@ -32780,14 +33074,14 @@
       <c r="D48" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="49" ht="90" spans="2:6">
+    <row r="49" ht="105" spans="2:6">
       <c r="B49" s="2" t="s">
         <v>466</v>
       </c>
@@ -32797,15 +33091,15 @@
       <c r="D49" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="24" t="s">
         <v>377</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="50" ht="60" spans="2:5">
-      <c r="B50" s="32" t="s">
+    <row r="50" ht="75" spans="2:5">
+      <c r="B50" s="33" t="s">
         <v>470</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -32814,11 +33108,11 @@
       <c r="D50" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="51" ht="75" spans="2:5">
+    <row r="51" ht="90" spans="2:5">
       <c r="B51" s="2" t="s">
         <v>473</v>
       </c>
@@ -32828,11 +33122,11 @@
       <c r="D51" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="52" ht="90" spans="2:5">
+    <row r="52" ht="105" spans="2:5">
       <c r="B52" s="2" t="s">
         <v>476</v>
       </c>
@@ -32842,11 +33136,11 @@
       <c r="D52" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="53" ht="60" spans="2:5">
+    <row r="53" ht="75" spans="2:5">
       <c r="B53" s="2" t="s">
         <v>479</v>
       </c>
@@ -32856,7 +33150,7 @@
       <c r="D53" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="24" t="s">
         <v>377</v>
       </c>
     </row>
@@ -32877,7 +33171,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="55" ht="180" spans="2:5">
+    <row r="55" ht="195" spans="2:5">
       <c r="B55" s="2" t="s">
         <v>485</v>
       </c>
@@ -32891,7 +33185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" ht="45" spans="2:6">
+    <row r="56" ht="60" spans="2:6">
       <c r="B56" s="2" t="s">
         <v>313</v>
       </c>
@@ -32908,7 +33202,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" ht="60" spans="2:6">
+    <row r="57" ht="75" spans="2:6">
       <c r="B57" s="2" t="s">
         <v>491</v>
       </c>
@@ -32936,7 +33230,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="59" ht="90" spans="2:6">
+    <row r="59" ht="120" spans="2:6">
       <c r="B59" s="2" t="s">
         <v>499</v>
       </c>
@@ -32950,7 +33244,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="60" ht="45" spans="2:6">
+    <row r="60" ht="60" spans="2:6">
       <c r="B60" s="2" t="s">
         <v>503</v>
       </c>
@@ -32981,14 +33275,14 @@
         <v>510</v>
       </c>
     </row>
-    <row r="62" ht="90" spans="2:7">
-      <c r="B62" s="49" t="s">
+    <row r="62" ht="105" spans="2:7">
+      <c r="B62" s="52" t="s">
         <v>511</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D62" s="52" t="s">
         <v>513</v>
       </c>
       <c r="F62" s="4" t="s">
@@ -33029,7 +33323,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="65" ht="75" spans="2:7">
+    <row r="65" ht="90" spans="2:7">
       <c r="B65" s="2" t="s">
         <v>525</v>
       </c>
@@ -33046,7 +33340,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" ht="135" spans="2:7">
+    <row r="66" ht="150" spans="2:7">
       <c r="B66" s="2" t="s">
         <v>530</v>
       </c>
@@ -33080,7 +33374,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="68" ht="150" spans="2:7">
+    <row r="68" ht="165" spans="2:7">
       <c r="B68" s="2" t="s">
         <v>540</v>
       </c>
@@ -33128,7 +33422,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="71" ht="135" spans="2:6">
+    <row r="71" ht="150" spans="2:6">
       <c r="B71" s="2" t="s">
         <v>554</v>
       </c>
@@ -33142,7 +33436,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="72" ht="45" spans="2:6">
+    <row r="72" ht="60" spans="2:6">
       <c r="B72" s="2" t="s">
         <v>62</v>
       </c>
@@ -33175,7 +33469,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="75" ht="330" spans="2:7">
+    <row r="75" ht="390" spans="2:7">
       <c r="B75" s="2" t="s">
         <v>565</v>
       </c>
@@ -33195,7 +33489,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="76" ht="105" spans="2:6">
+    <row r="76" ht="120" spans="2:6">
       <c r="B76" s="2" t="s">
         <v>571</v>
       </c>
@@ -33212,7 +33506,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="77" ht="120" spans="2:6">
+    <row r="77" ht="150" spans="2:6">
       <c r="B77" s="2" t="s">
         <v>575</v>
       </c>
@@ -33270,7 +33564,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" ht="60" spans="2:7">
+    <row r="82" ht="75" spans="2:7">
       <c r="B82" s="2" t="s">
         <v>588</v>
       </c>
@@ -33290,7 +33584,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="83" ht="120" spans="2:7">
+    <row r="83" ht="135" spans="2:7">
       <c r="B83" s="2" t="s">
         <v>593</v>
       </c>
@@ -33361,7 +33655,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" ht="30" spans="2:5">
       <c r="B87" s="2" t="s">
         <v>610</v>
       </c>
@@ -33403,7 +33697,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="90" ht="105" spans="2:7">
+    <row r="90" ht="120" spans="2:7">
       <c r="B90" s="2" t="s">
         <v>621</v>
       </c>
@@ -33445,7 +33739,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="93" ht="45" spans="2:6">
+    <row r="93" ht="60" spans="2:6">
       <c r="B93" s="2" t="s">
         <v>633</v>
       </c>
@@ -33508,14 +33802,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2833333333333" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.2857142857143" style="44" customWidth="1"/>
     <col min="2" max="2" width="25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.2833333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.4166666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.2833333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.7166666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.8583333333333" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="9.14166666666667" style="5"/>
+    <col min="3" max="3" width="21.2857142857143" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.4190476190476" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.2857142857143" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.7142857142857" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.8571428571429" style="5" customWidth="1"/>
+    <col min="8" max="1024" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
@@ -33540,13 +33834,13 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" ht="75" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="44" t="s">
         <v>645</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>647</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -33560,7 +33854,7 @@
       <c r="C3" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="44" t="s">
         <v>651</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -33580,16 +33874,16 @@
       <c r="C4" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="44" t="s">
         <v>656</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="44" t="s">
         <v>658</v>
       </c>
     </row>
@@ -33610,7 +33904,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="6" ht="60" spans="2:6">
+    <row r="6" ht="75" spans="2:6">
       <c r="B6" s="12" t="s">
         <v>663</v>
       </c>
@@ -33620,7 +33914,7 @@
       <c r="D6" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="24" t="s">
         <v>666</v>
       </c>
     </row>
@@ -33634,9 +33928,9 @@
       <c r="D7" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="24"/>
     </row>
-    <row r="8" ht="105" spans="2:6">
+    <row r="8" ht="135" spans="2:6">
       <c r="B8" s="12" t="s">
         <v>670</v>
       </c>
@@ -33646,7 +33940,7 @@
       <c r="D8" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>673</v>
       </c>
     </row>
@@ -33663,12 +33957,12 @@
       <c r="F9" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="45" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="10" ht="109.5" spans="4:7">
-      <c r="D10" s="32" t="s">
+    <row r="10" ht="114" spans="4:7">
+      <c r="D10" s="33" t="s">
         <v>679</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -33678,22 +33972,22 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" ht="123" spans="4:6">
-      <c r="D11" s="42" t="s">
+    <row r="11" ht="128.25" spans="4:6">
+      <c r="D11" s="46" t="s">
         <v>682</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="12" ht="75" spans="2:7">
+    <row r="12" ht="90" spans="2:7">
       <c r="B12" s="12" t="s">
         <v>684</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="24" t="s">
         <v>686</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -33706,14 +34000,14 @@
         <v>689</v>
       </c>
     </row>
-    <row r="13" ht="90" spans="2:7">
+    <row r="13" ht="105" spans="2:7">
       <c r="B13" s="12" t="s">
         <v>690</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="47" t="s">
         <v>692</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -33722,7 +34016,7 @@
       <c r="F13" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="44" t="s">
         <v>695</v>
       </c>
     </row>
@@ -33730,7 +34024,7 @@
       <c r="B14" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="24" t="s">
         <v>697</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -33740,7 +34034,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="15" ht="120" spans="2:7">
+    <row r="15" ht="135" spans="2:7">
       <c r="B15" s="12" t="s">
         <v>700</v>
       </c>
@@ -33753,7 +34047,7 @@
       <c r="F15" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="24" t="s">
         <v>704</v>
       </c>
     </row>
@@ -33778,21 +34072,21 @@
       <c r="C17" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="48" t="s">
         <v>711</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="2:6">
+    <row r="18" ht="45" spans="2:6">
       <c r="B18" s="12" t="s">
         <v>713</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="48" t="s">
         <v>715</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -33844,7 +34138,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="22" ht="75" spans="2:6">
+    <row r="22" ht="90" spans="2:6">
       <c r="B22" s="12" t="s">
         <v>727</v>
       </c>
@@ -33865,17 +34159,17 @@
       <c r="C23" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="24" t="s">
         <v>733</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="24" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="24" ht="90" spans="2:7">
+    <row r="24" ht="105" spans="2:7">
       <c r="B24" s="12" t="s">
         <v>736</v>
       </c>
@@ -33892,7 +34186,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" ht="45" spans="2:6">
+    <row r="25" ht="60" spans="2:6">
       <c r="B25" s="12" t="s">
         <v>741</v>
       </c>
@@ -33906,7 +34200,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="26" ht="105" spans="2:7">
+    <row r="26" ht="120" spans="2:7">
       <c r="B26" s="12" t="s">
         <v>745</v>
       </c>
@@ -33919,7 +34213,7 @@
       <c r="F26" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="24" t="s">
         <v>749</v>
       </c>
     </row>
@@ -33930,72 +34224,72 @@
       <c r="C27" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="24" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="28" ht="30" spans="2:7">
+    <row r="28" ht="45" spans="2:7">
       <c r="B28" s="12" t="s">
         <v>755</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="44" t="s">
         <v>757</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="24" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="29" ht="60" spans="2:6">
+    <row r="29" ht="75" spans="2:6">
       <c r="B29" s="12" t="s">
         <v>760</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="44" t="s">
         <v>762</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="30" ht="75" spans="2:7">
+    <row r="30" ht="90" spans="2:7">
       <c r="B30" s="12" t="s">
         <v>764</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="25" t="s">
         <v>767</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="31" ht="90" spans="2:4">
+    <row r="31" ht="135" spans="2:4">
       <c r="B31" s="12" t="s">
         <v>769</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="24" t="s">
         <v>771</v>
       </c>
     </row>
@@ -34006,7 +34300,7 @@
       <c r="C32" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="49" t="s">
         <v>774</v>
       </c>
     </row>
@@ -34017,7 +34311,7 @@
       <c r="C33" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="D33" s="45"/>
+      <c r="D33" s="49"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="12" t="s">
@@ -34026,36 +34320,36 @@
       <c r="C34" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="D34" s="45"/>
+      <c r="D34" s="49"/>
     </row>
-    <row r="35" ht="60" spans="2:6">
+    <row r="35" ht="75" spans="2:6">
       <c r="B35" s="12" t="s">
         <v>778</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="24" t="s">
         <v>780</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="36" ht="60" spans="2:7">
+    <row r="36" ht="90" spans="2:7">
       <c r="B36" s="12" t="s">
         <v>782</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>784</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="24" t="s">
         <v>786</v>
       </c>
     </row>
@@ -34066,7 +34360,7 @@
       <c r="C37" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="33" t="s">
         <v>789</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -34080,7 +34374,7 @@
       <c r="C38" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="24" t="s">
         <v>793</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -34104,25 +34398,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.7083333333333" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.85" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.7047619047619" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.847619047619" style="13" customWidth="1"/>
     <col min="3" max="3" width="27" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.5666666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.4333333333333" style="14" customWidth="1"/>
-    <col min="6" max="6" width="34.4333333333333" style="15" customWidth="1"/>
-    <col min="7" max="7" width="35.7166666666667" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="5" customWidth="1"/>
-    <col min="9" max="1024" width="9.14166666666667" style="5"/>
+    <col min="4" max="4" width="39.5619047619048" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.4285714285714" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.4380952380952" style="15" customWidth="1"/>
+    <col min="7" max="7" width="35.7142857142857" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.247619047619" style="5" customWidth="1"/>
+    <col min="9" max="1024" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
@@ -34141,13 +34435,13 @@
       <c r="E1" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="30" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>798</v>
       </c>
@@ -34155,7 +34449,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="3" ht="256.5" spans="1:7">
+    <row r="3" ht="270" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>800</v>
       </c>
@@ -34175,201 +34469,198 @@
         <v>805</v>
       </c>
     </row>
-    <row r="4" ht="31.5" spans="1:6">
+    <row r="4" ht="105" spans="1:6">
       <c r="A4" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="17" t="s">
         <v>807</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="E4" s="14" t="s">
+    </row>
+    <row r="5" ht="45" customHeight="1" spans="1:6">
+      <c r="A5" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>803</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="5" ht="78.75" spans="1:6">
-      <c r="A5" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>811</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:6">
-      <c r="A6" s="17" t="s">
+    <row r="6" ht="150" spans="1:7">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23" t="s">
         <v>813</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="G6" s="24" t="s">
         <v>815</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>803</v>
-      </c>
-      <c r="F6" s="15" t="s">
+    </row>
+    <row r="7" ht="30" spans="1:6">
+      <c r="A7" s="12" t="s">
         <v>816</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="7" ht="135" spans="1:7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21" t="s">
-        <v>817</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="15" t="s">
-        <v>818</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:6">
+    <row r="8" ht="150" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>820</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="24" t="s">
         <v>822</v>
       </c>
+      <c r="E8" s="22" t="s">
+        <v>823</v>
+      </c>
       <c r="F8" s="15" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
-    <row r="9" ht="150" customHeight="1" spans="1:6">
+    <row r="9" ht="30" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>824</v>
+        <v>530</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="75" spans="1:7">
+      <c r="A10" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>828</v>
       </c>
+      <c r="D10" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>831</v>
+      </c>
     </row>
-    <row r="10" ht="30" spans="1:5">
-      <c r="A10" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>830</v>
-      </c>
-      <c r="E10" s="30"/>
+    <row r="11" ht="30" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
-    <row r="11" ht="60" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>831</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>833</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="15" t="s">
+    <row r="12" ht="75" spans="1:6">
+      <c r="A12" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="C12" s="5" t="s">
         <v>835</v>
       </c>
+      <c r="D12" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>837</v>
+      </c>
     </row>
-    <row r="12" ht="30" spans="1:5">
-      <c r="A12" s="12" t="s">
-        <v>836</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="E12" s="30"/>
-    </row>
-    <row r="13" ht="81.75" spans="1:6">
+    <row r="13" ht="90" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="24" t="s">
         <v>839</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="24" t="s">
         <v>840</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="14" ht="80.25" spans="1:6">
+    <row r="14" ht="45" spans="1:6">
       <c r="A14" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="24" t="s">
         <v>844</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:6">
+    <row r="15" ht="90" spans="1:6">
       <c r="A15" s="12" t="s">
         <v>846</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="F15" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="F15" s="15" t="s">
+    </row>
+    <row r="16" ht="30" spans="1:4">
+      <c r="A16" s="12" t="s">
         <v>849</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>851</v>
+      </c>
     </row>
-    <row r="16" ht="64.5" spans="1:6">
-      <c r="A16" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="F16" s="15" t="s">
+    <row r="17" ht="30" spans="2:6">
+      <c r="B17" s="13" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="17" ht="30" spans="1:4">
-      <c r="A17" s="12" t="s">
+      <c r="C17" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="F17" s="25" t="s">
         <v>855</v>
       </c>
     </row>
@@ -34380,10 +34671,10 @@
       <c r="C18" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="25" t="s">
         <v>859</v>
       </c>
     </row>
@@ -34394,114 +34685,115 @@
       <c r="C19" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="25" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="2:4">
+      <c r="B20" s="13" t="s">
         <v>863</v>
       </c>
+      <c r="C20" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>865</v>
+      </c>
     </row>
-    <row r="20" ht="27" spans="2:6">
-      <c r="B20" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>865</v>
-      </c>
-      <c r="D20" s="23" t="s">
+    <row r="21" ht="85.5" spans="2:6">
+      <c r="B21" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>859</v>
+      <c r="C21" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>869</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="13" t="s">
-        <v>867</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="2:6">
+    <row r="22" ht="71.25" spans="2:7">
       <c r="B22" s="13" t="s">
         <v>870</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="26" t="s">
         <v>872</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="27" t="s">
         <v>873</v>
       </c>
+      <c r="G22" s="15" t="s">
+        <v>874</v>
+      </c>
     </row>
-    <row r="23" ht="54" spans="2:7">
+    <row r="23" ht="30" spans="2:7">
       <c r="B23" s="13" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="D23" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="D23" s="26" t="s">
         <v>877</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="27"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" ht="45" spans="2:7">
+      <c r="B24" s="13" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="24" ht="30" spans="2:7">
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="26" t="s">
         <v>880</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="F24" s="27" t="s">
         <v>881</v>
       </c>
-      <c r="F24" s="31"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" ht="81" spans="1:7">
+    <row r="25" ht="105" spans="1:7">
       <c r="A25" s="12" t="s">
         <v>882</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="24" t="s">
         <v>884</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="24" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="26" ht="32.25" spans="1:6">
+    <row r="26" ht="45" spans="1:6">
       <c r="A26" s="12" t="s">
         <v>887</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="28" t="s">
         <v>889</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="27" ht="81" spans="1:7">
+    <row r="27" ht="90" spans="1:7">
       <c r="A27" s="12" t="s">
         <v>717</v>
       </c>
@@ -34514,38 +34806,38 @@
       <c r="F27" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="24" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="28" ht="150" spans="1:7">
+    <row r="28" ht="165" spans="1:7">
       <c r="A28" s="12" t="s">
         <v>895</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="23" t="s">
         <v>897</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>898</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="24" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" ht="28.5" spans="1:7">
       <c r="A29" s="12" t="s">
         <v>900</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="28" t="s">
         <v>902</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="24" t="s">
         <v>903</v>
       </c>
     </row>
@@ -34557,7 +34849,7 @@
         <v>905</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="24" t="s">
         <v>903</v>
       </c>
     </row>
@@ -34569,24 +34861,24 @@
         <v>907</v>
       </c>
       <c r="D31" s="12"/>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="24" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="32" ht="82.5" spans="1:7">
+    <row r="32" ht="75" spans="1:7">
       <c r="A32" s="12" t="s">
         <v>908</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>910</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>911</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="24" t="s">
         <v>903</v>
       </c>
     </row>
@@ -34597,10 +34889,10 @@
       <c r="C33" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="29" t="s">
         <v>914</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="24" t="s">
         <v>903</v>
       </c>
     </row>
@@ -34611,21 +34903,21 @@
       <c r="C34" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="24" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" ht="28.5" spans="1:7">
       <c r="A35" s="12" t="s">
         <v>917</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="30" t="s">
         <v>919</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="24" t="s">
         <v>903</v>
       </c>
     </row>
@@ -34636,7 +34928,7 @@
       <c r="C36" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="24" t="s">
         <v>922</v>
       </c>
     </row>
@@ -34647,13 +34939,13 @@
       <c r="C37" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="29" t="s">
         <v>925</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="25" t="s">
         <v>926</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="24" t="s">
         <v>922</v>
       </c>
     </row>
@@ -34664,27 +34956,27 @@
       <c r="C38" s="5" t="s">
         <v>928</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="F38" s="23" t="s">
+      <c r="D38" s="29"/>
+      <c r="F38" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="24"/>
     </row>
-    <row r="39" ht="75" spans="1:7">
+    <row r="39" ht="105" spans="1:7">
       <c r="A39" s="12" t="s">
         <v>930</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="24" t="s">
         <v>932</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="24" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="40" ht="32.25" spans="1:6">
+    <row r="40" ht="45" spans="1:6">
       <c r="A40" s="12" t="s">
         <v>933</v>
       </c>
@@ -34698,42 +34990,42 @@
         <v>936</v>
       </c>
     </row>
-    <row r="41" ht="206.25" spans="1:6">
+    <row r="41" ht="240" spans="1:6">
       <c r="A41" s="12" t="s">
         <v>937</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="17" t="s">
         <v>939</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="42" ht="191.25" spans="1:6">
+    <row r="42" ht="225" spans="1:6">
       <c r="A42" s="12" t="s">
         <v>941</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="17" t="s">
         <v>943</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="43" ht="90" spans="1:7">
+    <row r="43" ht="105" spans="1:7">
       <c r="A43" s="12" t="s">
         <v>945</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="23" t="s">
         <v>947</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -34743,14 +35035,14 @@
         <v>949</v>
       </c>
     </row>
-    <row r="44" ht="112.5" spans="1:7">
+    <row r="44" ht="120" spans="1:7">
       <c r="A44" s="12" t="s">
         <v>950</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="17" t="s">
         <v>952</v>
       </c>
       <c r="E44" s="14" t="s">
@@ -34763,28 +35055,28 @@
         <v>955</v>
       </c>
     </row>
-    <row r="45" ht="31.5" spans="1:6">
+    <row r="45" ht="45" spans="1:6">
       <c r="A45" s="12" t="s">
         <v>956</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="21" t="s">
         <v>958</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="46" ht="65.25" spans="1:6">
+    <row r="46" ht="60" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="21" t="s">
         <v>961</v>
       </c>
       <c r="E46" s="14" t="s">
@@ -34794,14 +35086,14 @@
         <v>963</v>
       </c>
     </row>
-    <row r="47" ht="65.25" spans="1:6">
+    <row r="47" ht="60" spans="1:6">
       <c r="A47" s="12" t="s">
         <v>964</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="21" t="s">
         <v>966</v>
       </c>
       <c r="E47" s="14" t="s">
@@ -34818,21 +35110,21 @@
       <c r="C48" s="5" t="s">
         <v>969</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="21" t="s">
         <v>970</v>
       </c>
       <c r="E48" s="14" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="49" ht="81" spans="1:6">
+    <row r="49" ht="90" spans="1:6">
       <c r="A49" s="12" t="s">
         <v>971</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="21" t="s">
         <v>973</v>
       </c>
       <c r="E49" s="14" t="s">
@@ -34842,224 +35134,227 @@
         <v>974</v>
       </c>
     </row>
-    <row r="50" ht="47.25" spans="1:6">
+    <row r="50" ht="60" spans="1:6">
       <c r="A50" s="12" t="s">
         <v>975</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="21" t="s">
         <v>977</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="51" ht="33" spans="1:6">
+    <row r="51" ht="45" spans="1:6">
       <c r="A51" s="12" t="s">
         <v>979</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="21" t="s">
         <v>981</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="52" ht="33" spans="1:6">
+    <row r="52" ht="45" spans="1:6">
       <c r="A52" s="12" t="s">
         <v>983</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="21" t="s">
         <v>985</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="53" ht="47.25" spans="1:6">
+    <row r="53" ht="60" spans="1:6">
       <c r="A53" s="12" t="s">
         <v>987</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>988</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="21" t="s">
         <v>989</v>
       </c>
       <c r="F53" s="15" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="54" ht="47.25" spans="1:6">
+    <row r="54" ht="60" spans="1:6">
       <c r="A54" s="12" t="s">
         <v>991</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="17" t="s">
         <v>993</v>
       </c>
       <c r="F54" s="15" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="55" ht="30" spans="1:5">
+    <row r="55" ht="210" spans="1:6">
       <c r="A55" s="12" t="s">
         <v>995</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>997</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>998</v>
       </c>
+      <c r="F55" s="15" t="s">
+        <v>999</v>
+      </c>
     </row>
-    <row r="56" ht="66" spans="1:6">
+    <row r="56" ht="60" spans="1:6">
       <c r="A56" s="12" t="s">
         <v>705</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="57" ht="60" spans="1:7">
       <c r="A57" s="12" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G57" s="22" t="s">
         <v>1005</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="58" ht="90" spans="1:7">
       <c r="A58" s="12" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G58" s="22" t="s">
         <v>1010</v>
       </c>
+      <c r="G58" s="24" t="s">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="59" ht="47.25" spans="1:7">
+    <row r="59" ht="60" spans="1:7">
       <c r="A59" s="12" t="s">
         <v>950</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D59" s="28" t="s">
         <v>1012</v>
       </c>
+      <c r="D59" s="31" t="s">
+        <v>1013</v>
+      </c>
       <c r="F59" s="15" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G59" s="22"/>
+        <v>1014</v>
+      </c>
+      <c r="G59" s="24"/>
     </row>
-    <row r="60" ht="47.25" spans="1:6">
+    <row r="60" ht="60" spans="1:6">
       <c r="A60" s="12" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D60" s="22" t="s">
         <v>1016</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>1017</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>998</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
-    <row r="61" ht="228.75" spans="1:6">
+    <row r="61" ht="225" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D61" s="12" t="s">
         <v>1020</v>
       </c>
+      <c r="D61" s="32" t="s">
+        <v>1021</v>
+      </c>
       <c r="F61" s="15" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
-    <row r="62" ht="31.5" spans="1:6">
+    <row r="62" ht="30" spans="1:6">
       <c r="A62" s="12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C62" s="22" t="s">
         <v>1023</v>
       </c>
+      <c r="C62" s="24" t="s">
+        <v>1024</v>
+      </c>
       <c r="D62" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
-    <row r="63" ht="210.75" spans="1:7">
+    <row r="63" ht="225" spans="1:7">
       <c r="A63" s="12" t="s">
         <v>720</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G63" s="22" t="s">
         <v>1029</v>
       </c>
+      <c r="G63" s="24" t="s">
+        <v>1030</v>
+      </c>
     </row>
-    <row r="64" ht="45" spans="1:6">
+    <row r="64" ht="60" spans="1:6">
       <c r="A64" s="12" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D64" s="22" t="s">
         <v>1032</v>
       </c>
+      <c r="D64" s="24" t="s">
+        <v>1033</v>
+      </c>
       <c r="F64" s="15" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="65" ht="90" spans="1:7">
@@ -35067,461 +35362,498 @@
         <v>722</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D65" s="22" t="s">
         <v>1035</v>
       </c>
+      <c r="D65" s="24" t="s">
+        <v>1036</v>
+      </c>
       <c r="F65" s="15" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G65" s="22" t="s">
         <v>1037</v>
       </c>
+      <c r="G65" s="24" t="s">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="66" ht="65.25" spans="1:7">
+    <row r="66" ht="75" spans="1:7">
       <c r="A66" s="12" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D66" s="22" t="s">
         <v>1040</v>
       </c>
+      <c r="D66" s="24" t="s">
+        <v>1041</v>
+      </c>
       <c r="F66" s="15" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G66" s="22" t="s">
         <v>1042</v>
       </c>
+      <c r="G66" s="24" t="s">
+        <v>1043</v>
+      </c>
     </row>
-    <row r="67" ht="31.5" spans="1:6">
+    <row r="67" ht="45" spans="1:6">
       <c r="A67" s="12" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D67" s="22" t="s">
         <v>1045</v>
       </c>
+      <c r="D67" s="24" t="s">
+        <v>1046</v>
+      </c>
       <c r="F67" s="15" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
-    <row r="68" ht="64.5" spans="1:6">
+    <row r="68" ht="90" spans="1:6">
       <c r="A68" s="12" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="69" ht="30" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D69" s="22" t="s">
         <v>1053</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="70" ht="195" spans="1:6">
       <c r="A70" s="12" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D70" s="22" t="s">
         <v>1056</v>
       </c>
+      <c r="D70" s="24" t="s">
+        <v>1057</v>
+      </c>
       <c r="F70" s="15" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="71" ht="195" spans="1:6">
       <c r="A71" s="12" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D71" s="22" t="s">
         <v>1060</v>
       </c>
+      <c r="D71" s="24" t="s">
+        <v>1061</v>
+      </c>
       <c r="F71" s="15" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
-    <row r="72" ht="255" spans="1:7">
-      <c r="A72" s="32" t="s">
-        <v>1062</v>
+    <row r="72" ht="270" spans="1:7">
+      <c r="A72" s="33" t="s">
+        <v>1063</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D72" s="22" t="s">
         <v>1064</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="D72" s="24" t="s">
         <v>1065</v>
       </c>
+      <c r="E72" s="34" t="s">
+        <v>1066</v>
+      </c>
       <c r="F72" s="15" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G72" s="22"/>
+        <v>1067</v>
+      </c>
+      <c r="G72" s="24"/>
     </row>
-    <row r="73" ht="120" spans="1:7">
-      <c r="A73" s="32" t="s">
-        <v>1067</v>
+    <row r="73" ht="150" spans="1:7">
+      <c r="A73" s="33" t="s">
+        <v>1068</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D73" s="22" t="s">
         <v>1069</v>
       </c>
-      <c r="E73" s="36"/>
+      <c r="D73" s="24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E73" s="34"/>
       <c r="F73" s="15" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G73" s="22"/>
+        <v>1071</v>
+      </c>
+      <c r="G73" s="24"/>
     </row>
-    <row r="74" ht="31.5" spans="1:7">
-      <c r="A74" s="32" t="s">
-        <v>1071</v>
+    <row r="74" ht="45" spans="1:7">
+      <c r="A74" s="33" t="s">
+        <v>1072</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D74" s="22" t="s">
         <v>1073</v>
       </c>
+      <c r="D74" s="24" t="s">
+        <v>1074</v>
+      </c>
       <c r="F74" s="15" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G74" s="22"/>
+        <v>1075</v>
+      </c>
+      <c r="G74" s="24"/>
     </row>
-    <row r="75" ht="31.5" spans="1:7">
-      <c r="A75" s="32" t="s">
-        <v>1075</v>
+    <row r="75" ht="30" spans="1:7">
+      <c r="A75" s="33" t="s">
+        <v>1076</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D75" s="33" t="s">
         <v>1077</v>
       </c>
+      <c r="D75" s="35" t="s">
+        <v>1078</v>
+      </c>
       <c r="F75" s="15" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G75" s="22" t="s">
         <v>1079</v>
       </c>
+      <c r="G75" s="24" t="s">
+        <v>1080</v>
+      </c>
     </row>
-    <row r="76" ht="31.5" spans="1:7">
-      <c r="A76" s="34" t="s">
-        <v>1080</v>
+    <row r="76" ht="45" spans="1:7">
+      <c r="A76" s="36" t="s">
+        <v>1081</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>1081</v>
+        <v>1077</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>1082</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>1082</v>
-      </c>
-      <c r="G76" s="22" t="s">
         <v>1083</v>
       </c>
+      <c r="G76" s="24" t="s">
+        <v>1084</v>
+      </c>
     </row>
-    <row r="77" ht="129" spans="1:7">
-      <c r="A77" s="32" t="s">
-        <v>1084</v>
+    <row r="77" ht="120" spans="1:7">
+      <c r="A77" s="33" t="s">
+        <v>1085</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D77" s="16" t="s">
         <v>1086</v>
       </c>
+      <c r="D77" s="17" t="s">
+        <v>1087</v>
+      </c>
       <c r="F77" s="15" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G77" s="22" t="s">
         <v>1088</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="78" ht="40" customHeight="1" spans="1:7">
-      <c r="A78" s="32" t="s">
-        <v>1089</v>
+      <c r="A78" s="33" t="s">
+        <v>1090</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D78" s="21" t="s">
         <v>1091</v>
       </c>
+      <c r="D78" s="23" t="s">
+        <v>1092</v>
+      </c>
       <c r="F78" s="15" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G78" s="22"/>
+        <v>1093</v>
+      </c>
+      <c r="G78" s="24"/>
     </row>
     <row r="79" ht="165" spans="1:6">
       <c r="A79" s="12" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D79" s="16" t="s">
         <v>1095</v>
       </c>
+      <c r="D79" s="17" t="s">
+        <v>1096</v>
+      </c>
       <c r="F79" s="15" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
-    <row r="80" ht="120" spans="1:6">
+    <row r="80" ht="135" spans="1:6">
       <c r="A80" s="12" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D80" s="16" t="s">
         <v>1099</v>
       </c>
+      <c r="D80" s="17" t="s">
+        <v>1100</v>
+      </c>
       <c r="F80" s="15" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
-    <row r="81" ht="15.75" spans="1:6">
+    <row r="81" ht="30" spans="1:6">
       <c r="A81" s="12" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
-    <row r="82" ht="31.5" spans="1:6">
+    <row r="82" ht="45" spans="1:6">
       <c r="A82" s="12" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D82" s="22" t="s">
         <v>1106</v>
       </c>
+      <c r="D82" s="24" t="s">
+        <v>1107</v>
+      </c>
       <c r="F82" s="15" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="83" ht="30" spans="1:6">
       <c r="A83" s="12" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D83" s="22" t="s">
         <v>1110</v>
       </c>
+      <c r="D83" s="24" t="s">
+        <v>1111</v>
+      </c>
       <c r="F83" s="15" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
-    <row r="84" ht="177.75" spans="1:7">
+    <row r="84" ht="216" spans="1:7">
       <c r="A84" s="12" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D84" s="22" t="s">
         <v>1114</v>
       </c>
+      <c r="D84" s="24" t="s">
+        <v>1115</v>
+      </c>
       <c r="F84" s="37" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
-    <row r="85" ht="135" spans="1:7">
+    <row r="85" ht="165" spans="1:7">
       <c r="A85" s="12" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
-    <row r="86" ht="30" spans="2:4">
+    <row r="86" ht="45" spans="2:4">
       <c r="B86" s="13" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="87" ht="30" spans="2:6">
+    <row r="87" ht="45" spans="2:6">
       <c r="B87" s="13" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D87" s="35" t="s">
         <v>1127</v>
       </c>
+      <c r="D87" s="39" t="s">
+        <v>1128</v>
+      </c>
       <c r="F87" s="38" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
-    <row r="88" ht="30" spans="2:7">
+    <row r="88" ht="45" spans="2:7">
       <c r="B88" s="13" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D88" s="22" t="s">
         <v>1131</v>
       </c>
+      <c r="D88" s="24" t="s">
+        <v>1132</v>
+      </c>
       <c r="F88" s="37" t="s">
-        <v>1132</v>
-      </c>
-      <c r="G88" s="39"/>
+        <v>1133</v>
+      </c>
+      <c r="G88" s="40"/>
     </row>
-    <row r="89" ht="30.75" spans="2:7">
+    <row r="89" ht="30" spans="2:7">
       <c r="B89" s="13" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D89" s="22" t="s">
         <v>1135</v>
       </c>
+      <c r="D89" s="24" t="s">
+        <v>1136</v>
+      </c>
       <c r="F89" s="37" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G89" s="39"/>
+        <v>1137</v>
+      </c>
+      <c r="G89" s="40"/>
     </row>
-    <row r="90" ht="30" spans="2:7">
+    <row r="90" ht="42.75" spans="2:7">
       <c r="B90" s="13" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C90" s="22" t="s">
         <v>1138</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="C90" s="24" t="s">
         <v>1139</v>
       </c>
+      <c r="D90" s="24" t="s">
+        <v>1140</v>
+      </c>
       <c r="F90" s="37" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G90" s="39"/>
+        <v>1141</v>
+      </c>
+      <c r="G90" s="40"/>
     </row>
-    <row r="91" ht="105" spans="2:6">
+    <row r="91" ht="135" spans="2:6">
       <c r="B91" s="13" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D91" s="22" t="s">
         <v>1143</v>
       </c>
+      <c r="D91" s="24" t="s">
+        <v>1144</v>
+      </c>
       <c r="F91" s="37" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
-    <row r="92" ht="104.25" spans="2:6">
+    <row r="92" ht="117" spans="2:6">
       <c r="B92" s="13" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D92" s="20" t="s">
         <v>1147</v>
       </c>
+      <c r="D92" s="21" t="s">
+        <v>1148</v>
+      </c>
       <c r="F92" s="37" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="93" ht="135" spans="1:8">
       <c r="A93" s="12" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D93" s="22" t="s">
         <v>1151</v>
       </c>
+      <c r="D93" s="24" t="s">
+        <v>1152</v>
+      </c>
       <c r="F93" s="37" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H93" s="40" t="s">
         <v>1154</v>
       </c>
+      <c r="H93" s="41" t="s">
+        <v>1155</v>
+      </c>
     </row>
-    <row r="94" ht="150" spans="1:8">
+    <row r="94" ht="165" spans="1:8">
       <c r="A94" s="12" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C94" s="22" t="s">
         <v>1156</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="C94" s="24" t="s">
         <v>1157</v>
       </c>
+      <c r="D94" s="24" t="s">
+        <v>1158</v>
+      </c>
       <c r="F94" s="37" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H94" s="14"/>
+    </row>
+    <row r="95" ht="75" spans="1:8">
+      <c r="A95" s="12" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H95" s="43" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="96" ht="90" spans="1:7">
+      <c r="A96" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>1170</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E8:E11"/>
     <mergeCell ref="G88:G90"/>
     <mergeCell ref="H93:H94"/>
   </mergeCells>
@@ -35545,14 +35877,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7166666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5666666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.1416666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.4333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.2833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.7142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5619047619048" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.1428571428571" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.4285714285714" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.2857142857143" style="4" customWidth="1"/>
     <col min="6" max="6" width="24" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.1416666666667" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="9.14166666666667" style="5"/>
+    <col min="7" max="7" width="22.1428571428571" style="4" customWidth="1"/>
+    <col min="8" max="1024" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
@@ -35576,262 +35908,262 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="60" spans="1:6">
+    <row r="2" ht="75" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>1160</v>
+        <v>1171</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1161</v>
+        <v>1172</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1162</v>
+        <v>1173</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:7">
+    <row r="3" ht="45" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>1163</v>
+        <v>1174</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1164</v>
+        <v>1175</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1165</v>
+        <v>1176</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1166</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>1167</v>
+        <v>1178</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1168</v>
+        <v>1179</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1169</v>
+        <v>1180</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1170</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1171</v>
+        <v>1182</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1173</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1174</v>
+        <v>1185</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1175</v>
+        <v>1186</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1176</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1178</v>
+        <v>1189</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1179</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="8" ht="90" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>1180</v>
+        <v>1191</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1181</v>
+        <v>1192</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1183</v>
+        <v>1194</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1184</v>
+        <v>1195</v>
       </c>
     </row>
-    <row r="9" ht="75" spans="1:6">
+    <row r="9" ht="90" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>1185</v>
+        <v>1196</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1187</v>
+        <v>1198</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1188</v>
+        <v>1199</v>
       </c>
     </row>
-    <row r="10" ht="45" spans="1:6">
+    <row r="10" ht="60" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>1189</v>
+        <v>1200</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1190</v>
+        <v>1201</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1191</v>
+        <v>1202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1192</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>1193</v>
+        <v>1204</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1194</v>
+        <v>1205</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1195</v>
+        <v>1206</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1196</v>
+        <v>1207</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="30" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>1197</v>
+        <v>1208</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1198</v>
+        <v>1209</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1199</v>
+        <v>1210</v>
       </c>
     </row>
-    <row r="13" ht="75" spans="1:7">
+    <row r="13" ht="90" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>1200</v>
+        <v>1211</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1201</v>
+        <v>1212</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1202</v>
+        <v>1213</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1203</v>
+        <v>1214</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>1204</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>1205</v>
+        <v>1216</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1209</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="16" ht="105" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" ht="105" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
     </row>
-    <row r="18" ht="75" spans="1:6">
+    <row r="18" ht="90" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1225</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>1226</v>
+        <v>1237</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1227</v>
+        <v>1238</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1229</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -35857,14 +36189,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7166666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7166666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.7142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.15" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.2833333333333" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.5666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.152380952381" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.2857142857143" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.5714285714286" style="4" customWidth="1"/>
     <col min="7" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="9.14166666666667" style="5"/>
+    <col min="8" max="1024" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
@@ -35872,7 +36204,7 @@
         <v>644</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1230</v>
+        <v>1241</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -35890,68 +36222,68 @@
     </row>
     <row r="2" ht="30" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1231</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1232</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1233</v>
+        <v>1244</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1234</v>
+        <v>1245</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="1:3">
+    <row r="4" ht="45" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1236</v>
+        <v>1247</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:6">
+    <row r="5" ht="45" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1237</v>
+        <v>1248</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1238</v>
+        <v>1249</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1239</v>
+        <v>1250</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1241</v>
+        <v>1252</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1242</v>
+        <v>1253</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1243</v>
+        <v>1254</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1244</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1245</v>
+        <v>1256</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1247</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1248</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -35959,399 +36291,399 @@
         <v>535</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1249</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1251</v>
+        <v>1262</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1252</v>
+        <v>1263</v>
       </c>
     </row>
-    <row r="10" ht="45" spans="2:3">
+    <row r="10" ht="60" spans="2:3">
       <c r="B10" s="3" t="s">
-        <v>1253</v>
+        <v>1264</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1254</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" ht="45" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>1255</v>
+        <v>1266</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>1257</v>
+        <v>1268</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
     </row>
-    <row r="13" ht="45" spans="1:6">
+    <row r="13" ht="60" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1262</v>
+        <v>1273</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1263</v>
+        <v>1274</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
     </row>
-    <row r="14" ht="135" spans="1:6">
+    <row r="14" ht="180" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1265</v>
+        <v>1276</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1266</v>
+        <v>1277</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1267</v>
+        <v>1278</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="1:3">
+    <row r="15" ht="60" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1268</v>
+        <v>1279</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1269</v>
+        <v>1280</v>
       </c>
     </row>
-    <row r="16" ht="45" spans="2:6">
+    <row r="16" ht="75" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>1270</v>
+        <v>1281</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1271</v>
+        <v>1282</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1272</v>
+        <v>1283</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1273</v>
+        <v>1284</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:6">
+    <row r="17" ht="45" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1275</v>
+        <v>1286</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1276</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>1277</v>
+        <v>1288</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1278</v>
+        <v>1289</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1279</v>
+        <v>1290</v>
       </c>
     </row>
-    <row r="19" ht="150" spans="1:7">
+    <row r="19" ht="165" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1280</v>
+        <v>1291</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1281</v>
+        <v>1292</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1283</v>
+        <v>1294</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1284</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>1287</v>
+        <v>1298</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1288</v>
+        <v>1299</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1289</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1291</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>1292</v>
+        <v>1303</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1293</v>
+        <v>1304</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1294</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>1295</v>
+        <v>1306</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1296</v>
+        <v>1307</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1299</v>
+        <v>1310</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1300</v>
+        <v>1311</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="1:7">
+    <row r="26" ht="45" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>1301</v>
+        <v>1312</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1303</v>
+        <v>1314</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1304</v>
+        <v>1315</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1305</v>
+        <v>1316</v>
       </c>
     </row>
-    <row r="27" ht="120" spans="1:7">
+    <row r="27" ht="135" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>1306</v>
+        <v>1317</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1307</v>
+        <v>1318</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1308</v>
+        <v>1319</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1309</v>
+        <v>1320</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1310</v>
+        <v>1321</v>
       </c>
     </row>
-    <row r="28" ht="60" spans="1:7">
+    <row r="28" ht="90" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1312</v>
+        <v>1323</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1313</v>
+        <v>1324</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1314</v>
+        <v>1325</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1315</v>
+        <v>1326</v>
       </c>
     </row>
-    <row r="29" ht="45" spans="1:6">
+    <row r="29" ht="60" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>1316</v>
+        <v>1327</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1317</v>
+        <v>1328</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1318</v>
+        <v>1329</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
     </row>
-    <row r="30" ht="105" spans="1:7">
+    <row r="30" ht="135" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>1320</v>
+        <v>1331</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1321</v>
+        <v>1332</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1322</v>
+        <v>1333</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1319</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>1324</v>
+        <v>1335</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1325</v>
+        <v>1336</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1326</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="32" ht="45" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>1327</v>
+        <v>1338</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
     </row>
-    <row r="33" ht="255" spans="2:7">
+    <row r="33" ht="270" spans="2:7">
       <c r="B33" s="3" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1331</v>
+        <v>1342</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1330</v>
+        <v>1341</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1333</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="34" ht="45" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>1334</v>
+        <v>1345</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1336</v>
+        <v>1347</v>
       </c>
     </row>
-    <row r="35" ht="60" spans="2:7">
+    <row r="35" ht="75" spans="2:7">
       <c r="B35" s="3" t="s">
-        <v>1337</v>
+        <v>1348</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1338</v>
+        <v>1349</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1340</v>
+        <v>1351</v>
       </c>
     </row>
-    <row r="36" ht="45" spans="2:6">
+    <row r="36" ht="60" spans="2:6">
       <c r="B36" s="3" t="s">
-        <v>1341</v>
+        <v>1352</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1342</v>
+        <v>1353</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1343</v>
+        <v>1354</v>
       </c>
     </row>
-    <row r="37" ht="105" spans="1:6">
+    <row r="37" ht="120" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>1344</v>
+        <v>1355</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1345</v>
+        <v>1356</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1346</v>
+        <v>1357</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1347</v>
+        <v>1358</v>
       </c>
     </row>
-    <row r="38" ht="150" spans="1:7">
+    <row r="38" ht="210" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>1348</v>
+        <v>1359</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1349</v>
+        <v>1360</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1350</v>
+        <v>1361</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1352</v>
+        <v>1363</v>
       </c>
     </row>
-    <row r="39" ht="165" spans="1:7">
+    <row r="39" ht="195" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>1353</v>
+        <v>1364</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1354</v>
+        <v>1365</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1355</v>
+        <v>1366</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1356</v>
+        <v>1367</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1357</v>
+        <v>1368</v>
       </c>
     </row>
   </sheetData>

--- a/cursoemvideo/Anotações/Guia de tags.xlsx
+++ b/cursoemvideo/Anotações/Guia de tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12345" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="18525" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="1383">
   <si>
     <t>TAG</t>
   </si>
@@ -7011,6 +7011,127 @@
   </si>
   <si>
     <t>.container&gt;.items-$*5.item</t>
+  </si>
+  <si>
+    <t>*atalho pra lista</t>
+  </si>
+  <si>
+    <t>criar várias listas de uma vez</t>
+  </si>
+  <si>
+    <t>ul&gt;li*70</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>define a linguagem do arquivo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;html </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pt-br</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;
+&lt;h1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"&gt;The Last of Us&lt;/h1&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Na primeira atribuição, definimos que todo o conteúdo da página, por padrão, está em português brasileiro.
+Na segunda atribuição, porém, informamos que aquele título em específico está em inglês.
+</t>
+  </si>
+  <si>
+    <t>Ter esse cuidado de alterar pontualmente o idioma na página faz diferença por quesões de semântica e de acessibilidade. Algumas pessoas que usam leitor de tela, por exemplo, podem ficar confusas se essas definições não forem claras.</t>
+  </si>
+  <si>
+    <t>svg</t>
+  </si>
+  <si>
+    <t>serve para fazer alguns desenhos na página</t>
+  </si>
+  <si>
+    <t>Conferir dicas no link: https://www.w3schools.com/html/html5_svg.asp</t>
+  </si>
+  <si>
+    <t>Diferente do Canvas (JS), ele faz representações visuais em XML.</t>
   </si>
   <si>
     <t>PARÂMETRO</t>
@@ -23172,6 +23293,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4472C4"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>\033[</t>
     </r>
     <r>
@@ -27038,6 +27165,12 @@
     </r>
   </si>
   <si>
+    <t>.strip().lower()[0]</t>
+  </si>
+  <si>
+    <t>é assim que faço pra pegar só a primeira letra da entrada, facilitando assim o processo</t>
+  </si>
+  <si>
     <t>** ou __</t>
   </si>
   <si>
@@ -28348,9 +28481,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="88">
@@ -28580,6 +28713,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -28594,21 +28735,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28623,7 +28750,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28631,17 +28779,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28649,13 +28789,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -28684,7 +28817,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -28692,7 +28825,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28706,16 +28839,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28730,7 +28863,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28947,13 +29080,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28971,49 +29200,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29025,109 +29260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29156,11 +29289,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29168,8 +29307,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29193,22 +29332,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29241,39 +29374,39 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="35" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -29282,97 +29415,97 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -31110,12 +31243,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -32278,6 +32411,48 @@
       </c>
       <c r="C75" s="55" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" ht="165" spans="1:6">
+      <c r="A77" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" ht="45" spans="1:5">
+      <c r="A78" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -32322,7 +32497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -32343,74 +32518,74 @@
         <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" ht="210" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="33" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" ht="60" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>44</v>
@@ -32418,13 +32593,13 @@
     </row>
     <row r="7" ht="45" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>44</v>
@@ -32432,754 +32607,754 @@
     </row>
     <row r="8" ht="135" spans="1:6">
       <c r="A8" s="9" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" ht="105" spans="2:6">
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" ht="105" spans="2:6">
       <c r="B10" s="2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="45" spans="4:6">
       <c r="D11" s="11" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" ht="105" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" ht="180" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" ht="90" spans="2:7">
       <c r="B14" s="2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" ht="60" spans="2:7">
       <c r="B15" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D15" s="51"/>
       <c r="F15" s="9" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" ht="60" spans="2:6">
       <c r="B16" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>331</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" ht="30" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" ht="45" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" ht="30" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" ht="120" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" ht="225" spans="2:6">
       <c r="B22" s="52" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" ht="60" spans="2:5">
       <c r="B23" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" ht="60" spans="2:5">
       <c r="B24" s="2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" ht="45" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" ht="60" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" ht="90" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" ht="75" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" ht="45" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" ht="45" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" ht="45" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="32" ht="135" spans="2:7">
       <c r="B32" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" ht="45" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="5"/>
     </row>
     <row r="34" ht="57" spans="2:6">
       <c r="B34" s="33" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" ht="60" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" ht="90" spans="2:5">
       <c r="B36" s="2" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" ht="105" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="4" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" ht="45" spans="2:5">
       <c r="B38" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="E38" s="24"/>
     </row>
     <row r="39" ht="150" spans="2:6">
       <c r="B39" s="2" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="9" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" ht="120" spans="2:6">
       <c r="B40" s="2" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" ht="285" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" ht="270" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" ht="60" spans="2:5">
       <c r="B43" s="2" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" ht="45" spans="2:5">
       <c r="B44" s="2" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" ht="75" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" ht="45" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" ht="45" spans="2:5">
       <c r="B47" s="2" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" ht="60" spans="2:6">
       <c r="B48" s="2" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" ht="105" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" ht="75" spans="2:5">
       <c r="B50" s="33" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" ht="90" spans="2:5">
       <c r="B51" s="2" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" ht="105" spans="2:5">
       <c r="B52" s="2" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" ht="75" spans="2:5">
       <c r="B53" s="2" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" ht="45" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55" ht="195" spans="2:5">
       <c r="B55" s="2" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>44</v>
@@ -33187,253 +33362,253 @@
     </row>
     <row r="56" ht="60" spans="2:6">
       <c r="B56" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" ht="75" spans="2:6">
       <c r="B57" s="2" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" ht="60" spans="2:6">
       <c r="B58" s="2" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" ht="120" spans="2:6">
       <c r="B59" s="2" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="60" ht="60" spans="2:6">
       <c r="B60" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" ht="195" spans="2:7">
       <c r="B61" s="2" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62" ht="105" spans="2:7">
       <c r="B62" s="52" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" ht="255" spans="2:7">
       <c r="B63" s="2" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" ht="45" spans="2:6">
       <c r="B64" s="2" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" ht="90" spans="2:7">
       <c r="B65" s="2" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" ht="150" spans="2:7">
       <c r="B66" s="2" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" ht="90" spans="2:7">
       <c r="B67" s="2" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" ht="165" spans="2:7">
       <c r="B68" s="2" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="69" ht="225" spans="2:6">
       <c r="B69" s="2" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" ht="60" spans="2:7">
       <c r="B70" s="2" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" ht="150" spans="2:6">
       <c r="B71" s="2" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" ht="60" spans="2:6">
@@ -33441,341 +33616,341 @@
         <v>62</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" ht="30" spans="2:6">
       <c r="B73" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" ht="30" spans="2:6">
       <c r="B74" s="2" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" ht="390" spans="2:7">
       <c r="B75" s="2" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" ht="120" spans="2:6">
       <c r="B76" s="2" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" ht="150" spans="2:6">
       <c r="B77" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" ht="60" spans="2:5">
       <c r="B78" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>580</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="79" ht="30" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" ht="30" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" ht="30" spans="2:4">
       <c r="B81" s="2" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" ht="75" spans="2:7">
       <c r="B82" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" ht="135" spans="2:7">
       <c r="B83" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84" ht="60" spans="2:6">
       <c r="B84" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="85" ht="45" spans="2:7">
       <c r="B85" s="2" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" ht="30" spans="2:5">
       <c r="B86" s="2" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" ht="30" spans="2:5">
       <c r="B87" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" ht="60" spans="2:6">
       <c r="B88" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" ht="90" spans="2:6">
       <c r="B89" s="2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="90" ht="120" spans="2:7">
       <c r="B90" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" ht="210" spans="2:6">
       <c r="B91" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="92" ht="30" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" ht="60" spans="2:6">
       <c r="B93" s="2" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" ht="30" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="95" ht="45" spans="2:6">
       <c r="B95" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -33817,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -33835,553 +34010,553 @@
     </row>
     <row r="2" ht="75" spans="1:5">
       <c r="A2" s="44" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" ht="75" spans="2:7">
       <c r="B3" s="12" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4" ht="165" spans="2:7">
       <c r="B4" s="12" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" ht="60" spans="2:6">
       <c r="B5" s="12" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>648</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" ht="75" spans="2:6">
       <c r="B6" s="12" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" ht="30" spans="2:6">
       <c r="B7" s="12" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="F7" s="24"/>
     </row>
     <row r="8" ht="135" spans="2:6">
       <c r="B8" s="12" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" ht="120" spans="2:7">
       <c r="B9" s="12" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" ht="114" spans="4:7">
       <c r="D10" s="33" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" ht="128.25" spans="4:6">
       <c r="D11" s="46" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" ht="90" spans="2:7">
       <c r="B12" s="12" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" ht="105" spans="2:7">
       <c r="B13" s="12" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" ht="75" spans="2:6">
       <c r="B14" s="12" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" ht="135" spans="2:7">
       <c r="B15" s="12" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" ht="60" spans="2:6">
       <c r="B16" s="12" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" ht="60" spans="2:6">
       <c r="B17" s="12" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" ht="45" spans="2:6">
       <c r="B18" s="12" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" ht="60" spans="2:6">
       <c r="B19" s="12" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" ht="45" spans="2:6">
       <c r="B20" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>720</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="21" ht="135" spans="2:7">
       <c r="B21" s="12" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" ht="90" spans="2:6">
       <c r="B22" s="12" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" ht="150" spans="2:7">
       <c r="B23" s="12" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" ht="105" spans="2:7">
       <c r="B24" s="12" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" ht="60" spans="2:6">
       <c r="B25" s="12" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26" ht="120" spans="2:7">
       <c r="B26" s="12" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" ht="90" spans="2:7">
       <c r="B27" s="12" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" ht="45" spans="2:7">
       <c r="B28" s="12" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" ht="75" spans="2:6">
       <c r="B29" s="12" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
     </row>
     <row r="30" ht="90" spans="2:7">
       <c r="B30" s="12" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
     </row>
     <row r="31" ht="135" spans="2:4">
       <c r="B31" s="12" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="2:4">
       <c r="B32" s="12" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" ht="30" spans="2:4">
       <c r="B33" s="12" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="D33" s="49"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="12" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="D34" s="49"/>
     </row>
     <row r="35" ht="75" spans="2:6">
       <c r="B35" s="12" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="36" ht="90" spans="2:7">
       <c r="B36" s="12" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" ht="75" spans="2:6">
       <c r="B37" s="12" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="38" ht="90" spans="2:7">
       <c r="B38" s="12" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -34398,12 +34573,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -34421,10 +34596,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -34433,7 +34608,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>4</v>
@@ -34443,30 +34618,30 @@
     </row>
     <row r="2" ht="30" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" ht="270" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" ht="105" spans="1:6">
@@ -34474,31 +34649,31 @@
         <v>232</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
     </row>
     <row r="6" ht="150" spans="1:7">
@@ -34506,1345 +34681,1353 @@
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="23" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="15" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" ht="150" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:5">
       <c r="A9" s="12" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>825</v>
+        <v>837</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>826</v>
+        <v>838</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" ht="75" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>828</v>
+        <v>840</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>829</v>
+        <v>841</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="15" t="s">
-        <v>830</v>
+        <v>842</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>831</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>832</v>
+        <v>844</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E11" s="22"/>
     </row>
     <row r="12" ht="75" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>834</v>
+        <v>846</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
     </row>
     <row r="13" ht="90" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>842</v>
+        <v>854</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" ht="90" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:4">
       <c r="A16" s="12" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17" ht="30" spans="2:6">
       <c r="B17" s="13" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="18" ht="30" spans="2:6">
       <c r="B18" s="13" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="19" ht="30" spans="2:6">
       <c r="B19" s="13" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:4">
       <c r="B20" s="13" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="21" ht="85.5" spans="2:6">
       <c r="B21" s="13" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" ht="71.25" spans="2:7">
       <c r="B22" s="13" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:7">
       <c r="B23" s="13" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="15"/>
     </row>
     <row r="24" ht="45" spans="2:7">
       <c r="B24" s="13" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
       <c r="G24" s="15"/>
     </row>
     <row r="25" ht="105" spans="1:7">
       <c r="A25" s="12" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>886</v>
+        <v>898</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>887</v>
+        <v>899</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>889</v>
+        <v>901</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>890</v>
+        <v>902</v>
       </c>
     </row>
     <row r="27" ht="90" spans="1:7">
       <c r="A27" s="12" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>891</v>
+        <v>903</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>892</v>
+        <v>904</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>894</v>
+        <v>906</v>
       </c>
     </row>
     <row r="28" ht="165" spans="1:7">
       <c r="A28" s="12" t="s">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>899</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" ht="28.5" spans="1:7">
       <c r="A29" s="12" t="s">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>901</v>
+        <v>913</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>902</v>
+        <v>914</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12" t="s">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>905</v>
+        <v>917</v>
       </c>
       <c r="D30" s="12"/>
       <c r="G30" s="24" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:7">
       <c r="A31" s="12" t="s">
-        <v>906</v>
+        <v>918</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="D31" s="12"/>
       <c r="G31" s="24" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" ht="75" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>908</v>
+        <v>920</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>909</v>
+        <v>921</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>911</v>
+        <v>923</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>913</v>
+        <v>925</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>914</v>
+        <v>926</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>915</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="35" ht="28.5" spans="1:7">
       <c r="A35" s="12" t="s">
-        <v>917</v>
+        <v>929</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>903</v>
+        <v>915</v>
       </c>
     </row>
     <row r="36" ht="30" spans="1:7">
       <c r="A36" s="12" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>921</v>
+        <v>933</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="37" ht="30" spans="1:7">
       <c r="A37" s="12" t="s">
-        <v>923</v>
+        <v>935</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>925</v>
+        <v>937</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>926</v>
+        <v>938</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="38" ht="45" spans="1:7">
       <c r="A38" s="12" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>928</v>
+        <v>940</v>
       </c>
       <c r="D38" s="29"/>
       <c r="F38" s="25" t="s">
-        <v>929</v>
+        <v>941</v>
       </c>
       <c r="G38" s="24"/>
     </row>
     <row r="39" ht="105" spans="1:7">
       <c r="A39" s="12" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>931</v>
+        <v>943</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>922</v>
+        <v>934</v>
       </c>
     </row>
     <row r="40" ht="45" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
     </row>
     <row r="41" ht="240" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>940</v>
+        <v>952</v>
       </c>
     </row>
     <row r="42" ht="225" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>941</v>
+        <v>953</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>942</v>
+        <v>954</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
     </row>
     <row r="43" ht="105" spans="1:7">
       <c r="A43" s="12" t="s">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>946</v>
+        <v>958</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>948</v>
+        <v>960</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>949</v>
+        <v>961</v>
       </c>
     </row>
     <row r="44" ht="120" spans="1:7">
       <c r="A44" s="12" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>951</v>
+        <v>963</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>952</v>
+        <v>964</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>953</v>
+        <v>965</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>954</v>
+        <v>966</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
     </row>
     <row r="45" ht="45" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>957</v>
+        <v>969</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>958</v>
+        <v>970</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
     </row>
     <row r="46" ht="60" spans="1:6">
       <c r="A46" s="12" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
     </row>
     <row r="47" ht="60" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
     </row>
     <row r="48" ht="45" spans="1:5">
       <c r="A48" s="12" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="49" ht="90" spans="1:6">
       <c r="A49" s="12" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="50" ht="60" spans="1:6">
       <c r="A50" s="12" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="51" ht="45" spans="1:6">
       <c r="A51" s="12" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="52" ht="45" spans="1:6">
       <c r="A52" s="12" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="53" ht="60" spans="1:6">
       <c r="A53" s="12" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="54" ht="60" spans="1:6">
       <c r="A54" s="12" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="55" ht="210" spans="1:6">
       <c r="A55" s="12" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="56" ht="60" spans="1:6">
       <c r="A56" s="12" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="57" ht="60" spans="1:7">
       <c r="A57" s="12" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="58" ht="90" spans="1:7">
       <c r="A58" s="12" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="59" ht="60" spans="1:7">
       <c r="A59" s="12" t="s">
-        <v>950</v>
+        <v>962</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
       <c r="G59" s="24"/>
     </row>
     <row r="60" ht="60" spans="1:6">
       <c r="A60" s="12" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="61" ht="225" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="62" ht="30" spans="1:6">
       <c r="A62" s="12" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="63" ht="225" spans="1:7">
       <c r="A63" s="12" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1027</v>
+        <v>1039</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>1028</v>
+        <v>1040</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>1029</v>
+        <v>1041</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1030</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="64" ht="60" spans="1:6">
       <c r="A64" s="12" t="s">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="65" ht="90" spans="1:7">
       <c r="A65" s="12" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>1038</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="66" ht="75" spans="1:7">
       <c r="A66" s="12" t="s">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>1042</v>
+        <v>1054</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>1043</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="67" ht="45" spans="1:6">
       <c r="A67" s="12" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="68" ht="90" spans="1:6">
       <c r="A68" s="12" t="s">
-        <v>1048</v>
+        <v>1060</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>1050</v>
+        <v>1062</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>1051</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="69" ht="30" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1053</v>
+        <v>1065</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>1054</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="70" ht="195" spans="1:6">
       <c r="A70" s="12" t="s">
-        <v>1055</v>
+        <v>1067</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1056</v>
+        <v>1068</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>1058</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="71" ht="195" spans="1:6">
       <c r="A71" s="12" t="s">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1061</v>
+        <v>1073</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>1062</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="72" ht="270" spans="1:7">
       <c r="A72" s="33" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1064</v>
+        <v>1076</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>1065</v>
+        <v>1077</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>1066</v>
+        <v>1078</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="G72" s="24"/>
     </row>
     <row r="73" ht="150" spans="1:7">
       <c r="A73" s="33" t="s">
-        <v>1068</v>
+        <v>1080</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1069</v>
+        <v>1081</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>1070</v>
+        <v>1082</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="15" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="G73" s="24"/>
     </row>
     <row r="74" ht="45" spans="1:7">
       <c r="A74" s="33" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1073</v>
+        <v>1085</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>1074</v>
+        <v>1086</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>1075</v>
+        <v>1087</v>
       </c>
       <c r="G74" s="24"/>
     </row>
     <row r="75" ht="30" spans="1:7">
       <c r="A75" s="33" t="s">
-        <v>1076</v>
+        <v>1088</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="D75" s="35" t="s">
-        <v>1078</v>
+        <v>1090</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>1079</v>
+        <v>1091</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="76" ht="45" spans="1:7">
       <c r="A76" s="36" t="s">
-        <v>1081</v>
+        <v>1093</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1077</v>
+        <v>1089</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>1082</v>
+        <v>1094</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>1084</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="77" ht="120" spans="1:7">
       <c r="A77" s="33" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1086</v>
+        <v>1098</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="78" ht="40" customHeight="1" spans="1:7">
       <c r="A78" s="33" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>1093</v>
+        <v>1105</v>
       </c>
       <c r="G78" s="24"/>
     </row>
     <row r="79" ht="165" spans="1:6">
       <c r="A79" s="12" t="s">
-        <v>1094</v>
+        <v>1106</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1095</v>
+        <v>1107</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="80" ht="135" spans="1:6">
       <c r="A80" s="12" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1099</v>
+        <v>1111</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>1100</v>
+        <v>1112</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>1101</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="81" ht="30" spans="1:6">
       <c r="A81" s="12" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1103</v>
+        <v>1115</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>1104</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="82" ht="45" spans="1:6">
       <c r="A82" s="12" t="s">
-        <v>1105</v>
+        <v>1117</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>1107</v>
+        <v>1119</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>1108</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="83" ht="30" spans="1:6">
       <c r="A83" s="12" t="s">
-        <v>1109</v>
+        <v>1121</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1110</v>
+        <v>1122</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>1111</v>
+        <v>1123</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>1112</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="84" ht="216" spans="1:7">
       <c r="A84" s="12" t="s">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1114</v>
+        <v>1126</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>1115</v>
+        <v>1127</v>
       </c>
       <c r="F84" s="37" t="s">
-        <v>1116</v>
+        <v>1128</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>1117</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="85" ht="165" spans="1:7">
       <c r="A85" s="12" t="s">
-        <v>1118</v>
+        <v>1130</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1119</v>
+        <v>1131</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1120</v>
+        <v>1132</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1121</v>
+        <v>1133</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1122</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="86" ht="45" spans="2:4">
       <c r="B86" s="13" t="s">
-        <v>1123</v>
+        <v>1135</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1124</v>
+        <v>1136</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="87" ht="45" spans="2:6">
       <c r="B87" s="13" t="s">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1127</v>
+        <v>1139</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>1128</v>
+        <v>1140</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>1129</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="88" ht="45" spans="2:7">
       <c r="B88" s="13" t="s">
-        <v>1130</v>
+        <v>1142</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1131</v>
+        <v>1143</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>1132</v>
+        <v>1144</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>1133</v>
+        <v>1145</v>
       </c>
       <c r="G88" s="40"/>
     </row>
     <row r="89" ht="30" spans="2:7">
       <c r="B89" s="13" t="s">
-        <v>1134</v>
+        <v>1146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1135</v>
+        <v>1147</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>1136</v>
+        <v>1148</v>
       </c>
       <c r="F89" s="37" t="s">
-        <v>1137</v>
+        <v>1149</v>
       </c>
       <c r="G89" s="40"/>
     </row>
     <row r="90" ht="42.75" spans="2:7">
       <c r="B90" s="13" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="F90" s="37" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="G90" s="40"/>
     </row>
     <row r="91" ht="135" spans="2:6">
       <c r="B91" s="13" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="F91" s="37" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="92" ht="117" spans="2:6">
       <c r="B92" s="13" t="s">
-        <v>1146</v>
+        <v>1158</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1147</v>
+        <v>1159</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>1148</v>
+        <v>1160</v>
       </c>
       <c r="F92" s="37" t="s">
-        <v>1149</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="93" ht="135" spans="1:8">
       <c r="A93" s="12" t="s">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1151</v>
+        <v>1163</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="94" ht="165" spans="1:8">
       <c r="A94" s="12" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
       <c r="F94" s="37" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
       <c r="H94" s="14"/>
     </row>
     <row r="95" ht="75" spans="1:8">
       <c r="A95" s="12" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="96" ht="90" spans="1:7">
       <c r="A96" s="12" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="D96" s="42" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>1170</v>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="97" ht="45" spans="1:3">
+      <c r="A97" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -35889,10 +36072,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -35901,7 +36084,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -35910,260 +36093,260 @@
     </row>
     <row r="2" ht="75" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" ht="45" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>1178</v>
+        <v>1192</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1183</v>
+        <v>1197</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1184</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1185</v>
+        <v>1199</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1186</v>
+        <v>1200</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1187</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>1188</v>
+        <v>1202</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1190</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="8" ht="90" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>1191</v>
+        <v>1205</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1192</v>
+        <v>1206</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1193</v>
+        <v>1207</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1194</v>
+        <v>1208</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1195</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="9" ht="90" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>1196</v>
+        <v>1210</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1198</v>
+        <v>1212</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1201</v>
+        <v>1215</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1205</v>
+        <v>1219</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1207</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="13" ht="90" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1212</v>
+        <v>1226</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1213</v>
+        <v>1227</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="14" ht="45" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1217</v>
+        <v>1231</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1218</v>
+        <v>1232</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>1221</v>
+        <v>1235</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="16" ht="105" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1225</v>
+        <v>1239</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1227</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17" ht="105" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>1228</v>
+        <v>1242</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1230</v>
+        <v>1244</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1231</v>
+        <v>1245</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1232</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="18" ht="90" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1234</v>
+        <v>1248</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1235</v>
+        <v>1249</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1236</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>1237</v>
+        <v>1251</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1239</v>
+        <v>1253</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1240</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -36201,10 +36384,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1241</v>
+        <v>1255</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -36213,7 +36396,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -36222,468 +36405,468 @@
     </row>
     <row r="2" ht="30" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" ht="30" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1245</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1247</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1248</v>
+        <v>1262</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1249</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1250</v>
+        <v>1264</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="6" ht="75" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1253</v>
+        <v>1267</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1254</v>
+        <v>1268</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1255</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="7" ht="45" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1260</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1262</v>
+        <v>1276</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1263</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="10" ht="60" spans="2:3">
       <c r="B10" s="3" t="s">
-        <v>1264</v>
+        <v>1278</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1265</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="11" ht="45" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1267</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="12" ht="45" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>1268</v>
+        <v>1282</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1269</v>
+        <v>1283</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="13" ht="60" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1275</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="14" ht="180" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="15" ht="60" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1279</v>
+        <v>1293</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1280</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16" ht="75" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1283</v>
+        <v>1297</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="17" ht="45" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1285</v>
+        <v>1299</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1287</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>1288</v>
+        <v>1302</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1290</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="19" ht="165" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1292</v>
+        <v>1306</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1293</v>
+        <v>1307</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="26" ht="45" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="27" ht="135" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1318</v>
+        <v>1332</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1321</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="28" ht="90" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1323</v>
+        <v>1337</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1325</v>
+        <v>1339</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="29" ht="60" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1330</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="30" ht="135" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>1331</v>
+        <v>1345</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1334</v>
+        <v>1348</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1330</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="31" ht="30" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>1335</v>
+        <v>1349</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="32" ht="45" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1340</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="33" ht="270" spans="2:7">
       <c r="B33" s="3" t="s">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1342</v>
+        <v>1356</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1344</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="34" ht="45" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>1345</v>
+        <v>1359</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1346</v>
+        <v>1360</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1347</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="35" ht="75" spans="2:7">
       <c r="B35" s="3" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1349</v>
+        <v>1363</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="36" ht="60" spans="2:6">
       <c r="B36" s="3" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1353</v>
+        <v>1367</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="37" ht="120" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>1355</v>
+        <v>1369</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1356</v>
+        <v>1370</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1358</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="38" ht="210" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>1359</v>
+        <v>1373</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1360</v>
+        <v>1374</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1361</v>
+        <v>1375</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1363</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="39" ht="195" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
     </row>
   </sheetData>

--- a/cursoemvideo/Anotações/Guia de tags.xlsx
+++ b/cursoemvideo/Anotações/Guia de tags.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="9335" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HTML" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1384">
   <si>
     <t>TAG</t>
   </si>
@@ -13285,60 +13285,19 @@
     <t>vw</t>
   </si>
   <si>
-    <t>unidade de tamanho horizontal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">cada </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1vw</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> corresponde a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> da largura da tela.</t>
-    </r>
+    <t>unidade de tamanho horizontal (de toda a tela)</t>
+  </si>
+  <si>
+    <t>cada 1vw corresponde a 1% da largura da tela.</t>
+  </si>
+  <si>
+    <t>porém, o vw é a largura de tota a tela, enquanto que o % é referente ao elemento pai.</t>
   </si>
   <si>
     <t>vh</t>
   </si>
   <si>
-    <t>unidade de tamanho vertical</t>
+    <t>unidade de tamanho vertical (de toda a tela)</t>
   </si>
   <si>
     <r>
@@ -28481,9 +28440,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="88">
@@ -28713,29 +28672,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28756,15 +28694,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28777,78 +28722,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28863,7 +28738,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -29080,7 +29039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29098,7 +29057,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29110,31 +29075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29152,13 +29099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29170,7 +29129,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29188,43 +29165,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29236,31 +29201,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29307,41 +29266,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -29371,141 +29297,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="36" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="39" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29855,7 +29814,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9999980" y="82177890"/>
+          <a:off x="10281285" y="76379070"/>
           <a:ext cx="800735" cy="460375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29894,7 +29853,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10928350" y="82142330"/>
+          <a:off x="11209655" y="76343510"/>
           <a:ext cx="501015" cy="762635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29933,7 +29892,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10161905" y="83030695"/>
+          <a:off x="10443210" y="77231875"/>
           <a:ext cx="1038860" cy="483870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -29977,7 +29936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11654155" y="30929580"/>
+          <a:off x="11976100" y="28675965"/>
           <a:ext cx="935990" cy="337185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30016,7 +29975,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11335385" y="31508700"/>
+          <a:off x="11657330" y="29232225"/>
           <a:ext cx="969010" cy="342265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30055,7 +30014,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12588240" y="31490285"/>
+          <a:off x="12910185" y="29213810"/>
           <a:ext cx="963930" cy="332105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30094,7 +30053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11316335" y="34562415"/>
+          <a:off x="11638280" y="32164020"/>
           <a:ext cx="1388110" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30133,7 +30092,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11350625" y="42387520"/>
+          <a:off x="11672570" y="39493825"/>
           <a:ext cx="1334770" cy="474345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30172,7 +30131,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11369675" y="43028870"/>
+          <a:off x="11691620" y="40112315"/>
           <a:ext cx="1639570" cy="537845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30211,7 +30170,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11351260" y="44079160"/>
+          <a:off x="11673205" y="40934005"/>
           <a:ext cx="1238885" cy="478155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30250,7 +30209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11378565" y="44829095"/>
+          <a:off x="11700510" y="41470580"/>
           <a:ext cx="944880" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30289,7 +30248,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11356975" y="45415835"/>
+          <a:off x="11678920" y="42034460"/>
           <a:ext cx="890270" cy="313055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30328,7 +30287,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11360150" y="46033055"/>
+          <a:off x="11682095" y="42628820"/>
           <a:ext cx="1001395" cy="381635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30367,7 +30326,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11342370" y="46789975"/>
+          <a:off x="11664315" y="43355260"/>
           <a:ext cx="1143000" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30406,7 +30365,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11341100" y="54409975"/>
+          <a:off x="11663045" y="50304700"/>
           <a:ext cx="887095" cy="462915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30445,7 +30404,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12309475" y="54382670"/>
+          <a:off x="12631420" y="50277395"/>
           <a:ext cx="871220" cy="661670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30484,7 +30443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11724005" y="56401970"/>
+          <a:off x="12045950" y="52296695"/>
           <a:ext cx="656590" cy="175895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30523,7 +30482,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11427460" y="55222140"/>
+          <a:off x="11749405" y="51116865"/>
           <a:ext cx="1848485" cy="603250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30562,7 +30521,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11370945" y="70471030"/>
+          <a:off x="11692890" y="65542795"/>
           <a:ext cx="1181100" cy="556260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30601,7 +30560,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11341100" y="75711050"/>
+          <a:off x="11663045" y="70569455"/>
           <a:ext cx="812165" cy="339725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30640,7 +30599,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11377930" y="77308075"/>
+          <a:off x="11699875" y="72105520"/>
           <a:ext cx="865505" cy="357505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30679,7 +30638,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12487910" y="77322680"/>
+          <a:off x="12809855" y="72120125"/>
           <a:ext cx="940435" cy="513715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30718,7 +30677,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11314430" y="78746350"/>
+          <a:off x="11636375" y="73482835"/>
           <a:ext cx="828040" cy="414020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30757,7 +30716,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11384280" y="83460590"/>
+          <a:off x="11706225" y="77663675"/>
           <a:ext cx="662305" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30798,7 +30757,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11345545" y="89238455"/>
+          <a:off x="11667490" y="83045300"/>
           <a:ext cx="512445" cy="280670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30840,8 +30799,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11499850" y="90428445"/>
-          <a:ext cx="949325" cy="710565"/>
+          <a:off x="11821795" y="84189570"/>
+          <a:ext cx="949325" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30882,8 +30841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12541250" y="90442415"/>
-          <a:ext cx="1106805" cy="724535"/>
+          <a:off x="12863195" y="84203540"/>
+          <a:ext cx="1174750" cy="518795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30924,7 +30883,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13846810" y="99127310"/>
+          <a:off x="14236700" y="91834970"/>
           <a:ext cx="539115" cy="335915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -30969,7 +30928,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8805545" y="28896945"/>
+          <a:off x="9053830" y="26656665"/>
           <a:ext cx="919480" cy="544195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -31245,21 +31204,21 @@
   <sheetPr/>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.99047619047619" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.99074074074074" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.847619047619" style="11" customWidth="1"/>
-    <col min="2" max="2" width="43.5619047619048" style="5" customWidth="1"/>
-    <col min="3" max="3" width="40.1428571428571" style="55" customWidth="1"/>
-    <col min="4" max="4" width="30.2857142857143" style="24" customWidth="1"/>
-    <col min="5" max="5" width="32.4190476190476" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.847619047619" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.2857142857143" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.8518518518519" style="11" customWidth="1"/>
+    <col min="2" max="2" width="43.5648148148148" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40.1388888888889" style="55" customWidth="1"/>
+    <col min="4" max="4" width="30.287037037037" style="24" customWidth="1"/>
+    <col min="5" max="5" width="32.4166666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.8518518518519" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.287037037037" style="4" customWidth="1"/>
     <col min="8" max="1024" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -31282,7 +31241,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="30" spans="1:4">
+    <row r="2" ht="28.8" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -31321,7 +31280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
         <v>16</v>
       </c>
@@ -31335,7 +31294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:4">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
@@ -31360,7 +31319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:4">
+    <row r="8" ht="28.8" spans="1:4">
       <c r="A8" s="11" t="s">
         <v>26</v>
       </c>
@@ -31374,7 +31333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="90" spans="1:5">
+    <row r="9" ht="72" spans="1:5">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
@@ -31391,7 +31350,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:3">
+    <row r="10" ht="15.6" spans="1:3">
       <c r="A10" s="59" t="s">
         <v>34</v>
       </c>
@@ -31402,7 +31361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="120" spans="1:5">
+    <row r="11" ht="115.2" spans="1:5">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
@@ -31433,7 +31392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="60" spans="1:5">
+    <row r="13" ht="57.6" spans="1:5">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -31447,7 +31406,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="1:4">
+    <row r="14" ht="28.8" spans="1:4">
       <c r="A14" s="11" t="s">
         <v>48</v>
       </c>
@@ -31461,7 +31420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="45" spans="1:5">
+    <row r="15" ht="43.2" spans="1:5">
       <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
@@ -31478,7 +31437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:5">
+    <row r="16" ht="28.8" spans="1:5">
       <c r="A16" s="11" t="s">
         <v>55</v>
       </c>
@@ -31495,7 +31454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" ht="45" spans="1:5">
+    <row r="17" ht="43.2" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -31512,7 +31471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="1:5">
+    <row r="18" ht="28.8" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>62</v>
       </c>
@@ -31546,7 +31505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" ht="45" spans="1:5">
+    <row r="20" ht="43.2" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>71</v>
       </c>
@@ -31563,7 +31522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="45" spans="1:5">
+    <row r="21" ht="43.2" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>75</v>
       </c>
@@ -31580,7 +31539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" ht="60" spans="1:5">
+    <row r="22" ht="57.6" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>79</v>
       </c>
@@ -31597,7 +31556,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:5">
+    <row r="23" ht="16.8" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>83</v>
       </c>
@@ -31614,7 +31573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" ht="33.75" spans="1:5">
+    <row r="24" ht="17.4" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>87</v>
       </c>
@@ -31631,7 +31590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" ht="30" spans="1:4">
+    <row r="25" ht="28.8" spans="1:4">
       <c r="A25" s="11" t="s">
         <v>91</v>
       </c>
@@ -31645,7 +31604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" ht="30" spans="1:4">
+    <row r="26" ht="28.8" spans="1:4">
       <c r="A26" s="11" t="s">
         <v>94</v>
       </c>
@@ -31659,7 +31618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" ht="45" spans="1:5">
+    <row r="27" ht="28.8" spans="1:5">
       <c r="A27" s="11" t="s">
         <v>97</v>
       </c>
@@ -31676,7 +31635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" ht="45" spans="1:5">
+    <row r="28" ht="43.2" spans="1:5">
       <c r="A28" s="11" t="s">
         <v>101</v>
       </c>
@@ -31693,7 +31652,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" ht="45" spans="1:5">
+    <row r="29" ht="43.2" spans="1:5">
       <c r="A29" s="11" t="s">
         <v>105</v>
       </c>
@@ -31710,7 +31669,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" ht="60" spans="1:5">
+    <row r="30" ht="43.2" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>109</v>
       </c>
@@ -31727,7 +31686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" ht="45" spans="1:5">
+    <row r="31" ht="43.2" spans="1:5">
       <c r="A31" s="11" t="s">
         <v>113</v>
       </c>
@@ -31764,7 +31723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" ht="45" spans="1:6">
+    <row r="33" ht="43.2" spans="1:6">
       <c r="A33" s="11" t="s">
         <v>122</v>
       </c>
@@ -31797,7 +31756,7 @@
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" ht="30" spans="1:6">
+    <row r="35" ht="28.8" spans="1:6">
       <c r="A35" s="11" t="s">
         <v>129</v>
       </c>
@@ -31815,7 +31774,7 @@
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" ht="45" spans="1:5">
+    <row r="36" ht="43.2" spans="1:5">
       <c r="A36" s="11" t="s">
         <v>133</v>
       </c>
@@ -31908,7 +31867,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" ht="90" spans="1:5">
+    <row r="42" ht="86.4" spans="1:5">
       <c r="A42" s="61"/>
       <c r="B42" s="5" t="s">
         <v>154</v>
@@ -31923,7 +31882,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" ht="45" spans="1:5">
+    <row r="43" ht="28.8" spans="1:5">
       <c r="A43" s="61"/>
       <c r="B43" s="5" t="s">
         <v>157</v>
@@ -31935,7 +31894,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" ht="45" spans="1:5">
+    <row r="44" ht="43.2" spans="1:5">
       <c r="A44" s="61"/>
       <c r="B44" s="5" t="s">
         <v>160</v>
@@ -31947,7 +31906,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" ht="90" spans="1:5">
+    <row r="45" ht="86.4" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>163</v>
       </c>
@@ -31961,7 +31920,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" ht="150" spans="1:5">
+    <row r="46" ht="144" spans="1:5">
       <c r="A46" s="11" t="s">
         <v>167</v>
       </c>
@@ -31978,7 +31937,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" ht="75" spans="1:5">
+    <row r="47" ht="72" spans="1:5">
       <c r="A47" s="11" t="s">
         <v>172</v>
       </c>
@@ -31995,7 +31954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" ht="240" spans="1:5">
+    <row r="48" ht="216" spans="1:5">
       <c r="A48" s="11" t="s">
         <v>176</v>
       </c>
@@ -32012,7 +31971,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" ht="45" spans="1:5">
+    <row r="49" ht="43.2" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>180</v>
       </c>
@@ -32029,7 +31988,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" ht="225" spans="1:5">
+    <row r="50" ht="201.6" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>184</v>
       </c>
@@ -32046,7 +32005,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" ht="165" spans="1:5">
+    <row r="51" ht="158.4" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>188</v>
       </c>
@@ -32060,7 +32019,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" ht="135" spans="1:6">
+    <row r="52" ht="129.6" spans="1:6">
       <c r="A52" s="11" t="s">
         <v>192</v>
       </c>
@@ -32080,7 +32039,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" ht="240" spans="1:7">
+    <row r="53" ht="230.4" spans="1:7">
       <c r="A53" s="11" t="s">
         <v>198</v>
       </c>
@@ -32103,7 +32062,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" ht="30" spans="1:5">
+    <row r="54" ht="28.8" spans="1:5">
       <c r="A54" s="11" t="s">
         <v>204</v>
       </c>
@@ -32120,7 +32079,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" ht="75" spans="1:5">
+    <row r="55" ht="57.6" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>208</v>
       </c>
@@ -32137,7 +32096,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="56" ht="45" spans="1:4">
+    <row r="56" ht="43.2" spans="1:4">
       <c r="A56" s="11" t="s">
         <v>212</v>
       </c>
@@ -32151,7 +32110,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" ht="135" spans="1:6">
+    <row r="57" ht="129.6" spans="1:6">
       <c r="A57" s="11" t="s">
         <v>216</v>
       </c>
@@ -32171,7 +32130,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" ht="30" spans="1:5">
+    <row r="58" spans="1:5">
       <c r="A58" s="11" t="s">
         <v>221</v>
       </c>
@@ -32188,7 +32147,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" ht="60" spans="1:5">
+    <row r="59" ht="43.2" spans="1:5">
       <c r="A59" s="53" t="s">
         <v>225</v>
       </c>
@@ -32205,7 +32164,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" ht="105" spans="1:5">
+    <row r="60" ht="100.8" spans="1:5">
       <c r="A60" s="53" t="s">
         <v>229</v>
       </c>
@@ -32217,7 +32176,7 @@
       </c>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" ht="345" spans="1:7">
+    <row r="61" ht="302.4" spans="1:7">
       <c r="A61" s="11" t="s">
         <v>232</v>
       </c>
@@ -32237,7 +32196,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" ht="255" spans="3:6">
+    <row r="62" ht="244.8" spans="3:6">
       <c r="C62" s="58" t="s">
         <v>238</v>
       </c>
@@ -32248,7 +32207,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" ht="165" spans="1:6">
+    <row r="63" ht="144" spans="1:6">
       <c r="A63" s="11" t="s">
         <v>241</v>
       </c>
@@ -32265,7 +32224,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="64" ht="135" spans="1:6">
+    <row r="64" ht="129.6" spans="1:6">
       <c r="A64" s="11" t="s">
         <v>246</v>
       </c>
@@ -32282,7 +32241,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" ht="75" spans="1:5">
+    <row r="65" ht="57.6" spans="1:5">
       <c r="A65" s="11" t="s">
         <v>251</v>
       </c>
@@ -32296,7 +32255,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" ht="30" spans="1:3">
+    <row r="66" ht="28.8" spans="1:3">
       <c r="A66" s="11" t="s">
         <v>255</v>
       </c>
@@ -32371,7 +32330,7 @@
       </c>
       <c r="C72" s="62"/>
     </row>
-    <row r="73" ht="60" spans="1:5">
+    <row r="73" ht="57.6" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>274</v>
       </c>
@@ -32385,7 +32344,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" ht="60" spans="1:6">
+    <row r="74" ht="57.6" spans="1:6">
       <c r="A74" s="11" t="s">
         <v>278</v>
       </c>
@@ -32402,7 +32361,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" ht="30" spans="1:3">
+    <row r="75" ht="28.8" spans="1:3">
       <c r="A75" s="11" t="s">
         <v>283</v>
       </c>
@@ -32424,7 +32383,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="77" ht="165" spans="1:6">
+    <row r="77" ht="144" spans="1:6">
       <c r="A77" s="11" t="s">
         <v>289</v>
       </c>
@@ -32441,7 +32400,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" ht="45" spans="1:5">
+    <row r="78" ht="43.2" spans="1:5">
       <c r="A78" s="11" t="s">
         <v>294</v>
       </c>
@@ -32474,22 +32433,22 @@
   <sheetPr/>
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.1428571428571" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1428571428571" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.2857142857143" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.1388888888889" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5740740740741" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.1388888888889" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.287037037037" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.5740740740741" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="25.4190476190476" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="9.14285714285714" style="4"/>
+    <col min="7" max="7" width="25.4166666666667" style="4" customWidth="1"/>
+    <col min="8" max="1024" width="9.13888888888889" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
@@ -32513,7 +32472,7 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="75" spans="1:6">
+    <row r="2" ht="72" spans="1:6">
       <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
@@ -32530,7 +32489,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" ht="210" spans="1:7">
+    <row r="3" ht="201.6" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="33" t="s">
         <v>303</v>
@@ -32549,7 +32508,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" ht="60" spans="2:6">
+    <row r="4" ht="43.2" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>308</v>
       </c>
@@ -32591,7 +32550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" ht="45" spans="2:5">
+    <row r="7" ht="43.2" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>318</v>
       </c>
@@ -32605,7 +32564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" ht="135" spans="1:6">
+    <row r="8" ht="129.6" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>321</v>
       </c>
@@ -32619,7 +32578,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" ht="105" spans="2:6">
+    <row r="9" ht="86.4" spans="2:6">
       <c r="B9" s="2" t="s">
         <v>325</v>
       </c>
@@ -32636,7 +32595,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" ht="105" spans="2:6">
+    <row r="10" ht="100.8" spans="2:6">
       <c r="B10" s="2" t="s">
         <v>329</v>
       </c>
@@ -32653,7 +32612,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" ht="45" spans="4:6">
+    <row r="11" ht="43.2" spans="4:6">
       <c r="D11" s="11" t="s">
         <v>333</v>
       </c>
@@ -32664,7 +32623,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="12" ht="105" spans="2:6">
+    <row r="12" ht="100.8" spans="2:6">
       <c r="B12" s="2" t="s">
         <v>335</v>
       </c>
@@ -32681,7 +32640,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="13" ht="180" spans="2:7">
+    <row r="13" ht="172.8" spans="2:7">
       <c r="B13" s="2" t="s">
         <v>340</v>
       </c>
@@ -32701,7 +32660,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="14" ht="90" spans="2:7">
+    <row r="14" ht="86.4" spans="2:7">
       <c r="B14" s="2" t="s">
         <v>346</v>
       </c>
@@ -32718,7 +32677,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" ht="60" spans="2:7">
+    <row r="15" ht="57.6" spans="2:7">
       <c r="B15" s="2" t="s">
         <v>351</v>
       </c>
@@ -32731,7 +32690,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" ht="60" spans="2:6">
+    <row r="16" ht="57.6" spans="2:6">
       <c r="B16" s="2" t="s">
         <v>354</v>
       </c>
@@ -32748,7 +32707,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:6">
+    <row r="17" ht="28.8" spans="2:6">
       <c r="B17" s="2" t="s">
         <v>358</v>
       </c>
@@ -32765,7 +32724,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="18" ht="45" spans="2:6">
+    <row r="18" ht="28.8" spans="2:6">
       <c r="B18" s="2" t="s">
         <v>362</v>
       </c>
@@ -32782,7 +32741,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="2:6">
+    <row r="19" ht="28.8" spans="2:6">
       <c r="B19" s="2" t="s">
         <v>366</v>
       </c>
@@ -32799,7 +32758,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="2:6">
+    <row r="20" ht="28.8" spans="2:6">
       <c r="B20" s="2" t="s">
         <v>318</v>
       </c>
@@ -32816,7 +32775,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="21" ht="120" spans="2:6">
+    <row r="21" ht="115.2" spans="2:6">
       <c r="B21" s="2" t="s">
         <v>371</v>
       </c>
@@ -32833,7 +32792,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" ht="225" spans="2:6">
+    <row r="22" ht="201.6" spans="2:6">
       <c r="B22" s="52" t="s">
         <v>375</v>
       </c>
@@ -32850,7 +32809,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" ht="60" spans="2:5">
+    <row r="23" ht="57.6" spans="2:5">
       <c r="B23" s="2" t="s">
         <v>379</v>
       </c>
@@ -32864,7 +32823,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="24" ht="60" spans="2:5">
+    <row r="24" ht="57.6" spans="2:5">
       <c r="B24" s="2" t="s">
         <v>383</v>
       </c>
@@ -32878,7 +32837,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" ht="45" spans="2:6">
+    <row r="25" ht="43.2" spans="2:6">
       <c r="B25" s="2" t="s">
         <v>386</v>
       </c>
@@ -32895,7 +32854,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" ht="60" spans="2:6">
+    <row r="26" ht="43.2" spans="2:6">
       <c r="B26" s="2" t="s">
         <v>391</v>
       </c>
@@ -32912,7 +32871,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" ht="90" spans="2:6">
+    <row r="27" ht="72" spans="2:6">
       <c r="B27" s="2" t="s">
         <v>395</v>
       </c>
@@ -32929,7 +32888,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="28" ht="75" spans="2:6">
+    <row r="28" ht="72" spans="2:6">
       <c r="B28" s="2" t="s">
         <v>399</v>
       </c>
@@ -32944,7 +32903,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="29" ht="45" spans="2:6">
+    <row r="29" ht="43.2" spans="2:6">
       <c r="B29" s="2" t="s">
         <v>403</v>
       </c>
@@ -32959,7 +32918,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="30" ht="45" spans="2:6">
+    <row r="30" ht="43.2" spans="2:6">
       <c r="B30" s="2" t="s">
         <v>407</v>
       </c>
@@ -32974,7 +32933,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="31" ht="45" spans="2:6">
+    <row r="31" ht="43.2" spans="2:6">
       <c r="B31" s="2" t="s">
         <v>411</v>
       </c>
@@ -32989,7 +32948,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" ht="135" spans="2:7">
+    <row r="32" ht="129.6" spans="2:7">
       <c r="B32" s="2" t="s">
         <v>415</v>
       </c>
@@ -33009,7 +32968,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="33" ht="45" spans="2:6">
+    <row r="33" ht="43.2" spans="2:6">
       <c r="B33" s="2" t="s">
         <v>420</v>
       </c>
@@ -33022,7 +32981,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" ht="57" spans="2:6">
+    <row r="34" ht="57.6" spans="2:6">
       <c r="B34" s="33" t="s">
         <v>423</v>
       </c>
@@ -33039,7 +32998,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="35" ht="60" spans="2:6">
+    <row r="35" ht="57.6" spans="2:6">
       <c r="B35" s="2" t="s">
         <v>427</v>
       </c>
@@ -33056,7 +33015,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="36" ht="90" spans="2:5">
+    <row r="36" ht="86.4" spans="2:5">
       <c r="B36" s="2" t="s">
         <v>431</v>
       </c>
@@ -33070,7 +33029,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="37" ht="105" spans="2:6">
+    <row r="37" ht="100.8" spans="2:6">
       <c r="B37" s="2" t="s">
         <v>434</v>
       </c>
@@ -33085,7 +33044,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="38" ht="45" spans="2:5">
+    <row r="38" ht="43.2" spans="2:5">
       <c r="B38" s="2" t="s">
         <v>438</v>
       </c>
@@ -33097,7 +33056,7 @@
       </c>
       <c r="E38" s="24"/>
     </row>
-    <row r="39" ht="150" spans="2:6">
+    <row r="39" ht="144" spans="2:6">
       <c r="B39" s="2" t="s">
         <v>441</v>
       </c>
@@ -33112,7 +33071,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="40" ht="120" spans="2:6">
+    <row r="40" ht="115.2" spans="2:6">
       <c r="B40" s="2" t="s">
         <v>445</v>
       </c>
@@ -33129,7 +33088,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="41" ht="285" spans="2:6">
+    <row r="41" ht="259.2" spans="2:6">
       <c r="B41" s="2" t="s">
         <v>449</v>
       </c>
@@ -33146,7 +33105,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" ht="270" spans="2:6">
+    <row r="42" ht="259.2" spans="2:6">
       <c r="B42" s="2" t="s">
         <v>453</v>
       </c>
@@ -33163,7 +33122,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="43" ht="60" spans="2:5">
+    <row r="43" ht="57.6" spans="2:5">
       <c r="B43" s="2" t="s">
         <v>457</v>
       </c>
@@ -33177,7 +33136,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" ht="45" spans="2:5">
+    <row r="44" ht="43.2" spans="2:5">
       <c r="B44" s="2" t="s">
         <v>460</v>
       </c>
@@ -33191,7 +33150,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" ht="75" spans="2:6">
+    <row r="45" ht="72" spans="2:6">
       <c r="B45" s="2" t="s">
         <v>463</v>
       </c>
@@ -33208,7 +33167,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" ht="45" spans="2:6">
+    <row r="46" ht="43.2" spans="2:6">
       <c r="B46" s="2" t="s">
         <v>467</v>
       </c>
@@ -33225,7 +33184,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" ht="45" spans="2:5">
+    <row r="47" ht="43.2" spans="2:5">
       <c r="B47" s="2" t="s">
         <v>471</v>
       </c>
@@ -33239,7 +33198,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" ht="60" spans="2:6">
+    <row r="48" ht="43.2" spans="2:6">
       <c r="B48" s="2" t="s">
         <v>474</v>
       </c>
@@ -33256,7 +33215,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="49" ht="105" spans="2:6">
+    <row r="49" ht="86.4" spans="2:6">
       <c r="B49" s="2" t="s">
         <v>478</v>
       </c>
@@ -33273,7 +33232,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="50" ht="75" spans="2:5">
+    <row r="50" ht="72" spans="2:5">
       <c r="B50" s="33" t="s">
         <v>482</v>
       </c>
@@ -33287,7 +33246,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" ht="90" spans="2:5">
+    <row r="51" ht="86.4" spans="2:5">
       <c r="B51" s="2" t="s">
         <v>485</v>
       </c>
@@ -33301,7 +33260,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" ht="105" spans="2:5">
+    <row r="52" ht="100.8" spans="2:5">
       <c r="B52" s="2" t="s">
         <v>488</v>
       </c>
@@ -33315,7 +33274,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" ht="75" spans="2:5">
+    <row r="53" ht="72" spans="2:5">
       <c r="B53" s="2" t="s">
         <v>491</v>
       </c>
@@ -33329,7 +33288,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="54" ht="45" spans="2:6">
+    <row r="54" ht="43.2" spans="2:6">
       <c r="B54" s="2" t="s">
         <v>335</v>
       </c>
@@ -33346,7 +33305,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="55" ht="195" spans="2:5">
+    <row r="55" ht="187.2" spans="2:5">
       <c r="B55" s="2" t="s">
         <v>497</v>
       </c>
@@ -33360,7 +33319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" ht="60" spans="2:6">
+    <row r="56" ht="57.6" spans="2:6">
       <c r="B56" s="2" t="s">
         <v>325</v>
       </c>
@@ -33377,7 +33336,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" ht="75" spans="2:6">
+    <row r="57" ht="57.6" spans="2:6">
       <c r="B57" s="2" t="s">
         <v>503</v>
       </c>
@@ -33391,7 +33350,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="58" ht="60" spans="2:6">
+    <row r="58" ht="57.6" spans="2:6">
       <c r="B58" s="2" t="s">
         <v>507</v>
       </c>
@@ -33405,7 +33364,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="59" ht="120" spans="2:6">
+    <row r="59" ht="86.4" spans="2:6">
       <c r="B59" s="2" t="s">
         <v>511</v>
       </c>
@@ -33419,7 +33378,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="60" ht="60" spans="2:6">
+    <row r="60" ht="43.2" spans="2:6">
       <c r="B60" s="2" t="s">
         <v>515</v>
       </c>
@@ -33433,7 +33392,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="61" ht="195" spans="2:7">
+    <row r="61" ht="187.2" spans="2:7">
       <c r="B61" s="2" t="s">
         <v>518</v>
       </c>
@@ -33450,7 +33409,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="62" ht="105" spans="2:7">
+    <row r="62" ht="100.8" spans="2:7">
       <c r="B62" s="52" t="s">
         <v>523</v>
       </c>
@@ -33467,7 +33426,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" ht="255" spans="2:7">
+    <row r="63" ht="244.8" spans="2:7">
       <c r="B63" s="2" t="s">
         <v>528</v>
       </c>
@@ -33484,7 +33443,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="64" ht="45" spans="2:6">
+    <row r="64" ht="43.2" spans="2:6">
       <c r="B64" s="2" t="s">
         <v>533</v>
       </c>
@@ -33498,7 +33457,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="65" ht="90" spans="2:7">
+    <row r="65" ht="86.4" spans="2:7">
       <c r="B65" s="2" t="s">
         <v>537</v>
       </c>
@@ -33515,7 +33474,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="66" ht="150" spans="2:7">
+    <row r="66" ht="129.6" spans="2:7">
       <c r="B66" s="2" t="s">
         <v>542</v>
       </c>
@@ -33532,7 +33491,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" ht="90" spans="2:7">
+    <row r="67" ht="86.4" spans="2:7">
       <c r="B67" s="2" t="s">
         <v>547</v>
       </c>
@@ -33549,7 +33508,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="68" ht="165" spans="2:7">
+    <row r="68" ht="158.4" spans="2:7">
       <c r="B68" s="2" t="s">
         <v>552</v>
       </c>
@@ -33566,7 +33525,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="69" ht="225" spans="2:6">
+    <row r="69" ht="216" spans="2:6">
       <c r="B69" s="2" t="s">
         <v>557</v>
       </c>
@@ -33580,7 +33539,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="70" ht="60" spans="2:7">
+    <row r="70" ht="57.6" spans="2:7">
       <c r="B70" s="2" t="s">
         <v>561</v>
       </c>
@@ -33597,7 +33556,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="71" ht="150" spans="2:6">
+    <row r="71" ht="144" spans="2:6">
       <c r="B71" s="2" t="s">
         <v>566</v>
       </c>
@@ -33611,7 +33570,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="72" ht="60" spans="2:6">
+    <row r="72" ht="43.2" spans="2:6">
       <c r="B72" s="2" t="s">
         <v>62</v>
       </c>
@@ -33622,7 +33581,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="73" ht="30" spans="2:6">
+    <row r="73" ht="43.2" spans="2:7">
       <c r="B73" s="2" t="s">
         <v>571</v>
       </c>
@@ -33632,325 +33591,328 @@
       <c r="F73" s="9" t="s">
         <v>573</v>
       </c>
+      <c r="G73" s="4" t="s">
+        <v>574</v>
+      </c>
     </row>
-    <row r="74" ht="30" spans="2:6">
+    <row r="74" ht="28.8" spans="2:6">
       <c r="B74" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="75" ht="390" spans="2:7">
+    <row r="75" ht="345.6" spans="2:7">
       <c r="B75" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="76" ht="100.8" spans="2:6">
+      <c r="B76" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G75" s="9" t="s">
-        <v>582</v>
+      <c r="F76" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
-    <row r="76" ht="120" spans="2:6">
-      <c r="B76" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>586</v>
+    <row r="77" ht="129.6" spans="2:6">
+      <c r="B77" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>591</v>
       </c>
     </row>
-    <row r="77" ht="150" spans="2:6">
-      <c r="B77" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>590</v>
+    <row r="78" ht="57.6" spans="2:5">
+      <c r="B78" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>581</v>
       </c>
     </row>
-    <row r="78" ht="60" spans="2:5">
-      <c r="B78" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="79" ht="30" spans="2:4">
+    <row r="79" ht="28.8" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" ht="30" spans="2:4">
+    <row r="80" ht="28.8" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" ht="30" spans="2:4">
+    <row r="81" ht="28.8" spans="2:4">
       <c r="B81" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" ht="75" spans="2:7">
+    <row r="82" ht="57.6" spans="2:7">
       <c r="B82" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
-    <row r="83" ht="135" spans="2:7">
+    <row r="83" ht="115.2" spans="2:7">
       <c r="B83" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="84" ht="60" spans="2:6">
+    <row r="84" ht="57.6" spans="2:6">
       <c r="B84" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="85" ht="45" spans="2:7">
+    <row r="85" ht="43.2" spans="2:7">
       <c r="B85" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
-    <row r="86" ht="30" spans="2:5">
+    <row r="86" ht="28.8" spans="2:5">
       <c r="B86" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="87" ht="30" spans="2:5">
+    <row r="87" ht="28.8" spans="2:5">
       <c r="B87" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
-    <row r="88" ht="60" spans="2:6">
+    <row r="88" ht="57.6" spans="2:6">
       <c r="B88" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="89" ht="90" spans="2:6">
+    <row r="89" ht="86.4" spans="2:6">
       <c r="B89" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="90" ht="120" spans="2:7">
+    <row r="90" ht="115.2" spans="2:7">
       <c r="B90" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="91" ht="210" spans="2:6">
+    <row r="91" ht="201.6" spans="2:6">
       <c r="B91" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
-    <row r="92" ht="30" spans="2:4">
+    <row r="92" ht="28.8" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="93" ht="60" spans="2:6">
+    <row r="93" ht="57.6" spans="2:6">
       <c r="B93" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
-    <row r="94" ht="30" spans="2:4">
+    <row r="94" ht="28.8" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
-    <row r="95" ht="45" spans="2:6">
+    <row r="95" ht="43.2" spans="2:6">
       <c r="B95" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -33975,16 +33937,16 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.2857142857143" style="44" customWidth="1"/>
+    <col min="1" max="1" width="17.287037037037" style="44" customWidth="1"/>
     <col min="2" max="2" width="25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.2857142857143" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.4190476190476" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.2857142857143" style="5" customWidth="1"/>
-    <col min="6" max="6" width="24.7142857142857" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.8571428571429" style="5" customWidth="1"/>
-    <col min="8" max="1024" width="9.14285714285714" style="5"/>
+    <col min="3" max="3" width="21.287037037037" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.4166666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.287037037037" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.712962962963" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.8611111111111" style="5" customWidth="1"/>
+    <col min="8" max="1024" width="9.13888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
@@ -33992,7 +33954,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -34008,555 +33970,555 @@
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="75" spans="1:5">
+    <row r="2" ht="72" spans="1:5">
       <c r="A2" s="44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="2:7">
+    <row r="3" ht="72" spans="2:7">
       <c r="B3" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>663</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>660</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
-    <row r="4" ht="165" spans="2:7">
+    <row r="4" ht="158.4" spans="2:7">
       <c r="B4" s="12" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="5" ht="60" spans="2:6">
+    <row r="5" ht="57.6" spans="2:6">
       <c r="B5" s="12" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="2:6">
+    <row r="6" ht="72" spans="2:6">
       <c r="B6" s="12" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="2:6">
+    <row r="7" ht="28.8" spans="2:6">
       <c r="B7" s="12" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" ht="135" spans="2:6">
+    <row r="8" ht="115.2" spans="2:6">
       <c r="B8" s="12" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
-    <row r="9" ht="120" spans="2:7">
+    <row r="9" ht="115.2" spans="2:7">
       <c r="B9" s="12" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
-    <row r="10" ht="114" spans="4:7">
+    <row r="10" ht="115.2" spans="4:7">
       <c r="D10" s="33" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
-    <row r="11" ht="128.25" spans="4:6">
+    <row r="11" ht="129.6" spans="4:6">
       <c r="D11" s="46" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
-    <row r="12" ht="90" spans="2:7">
+    <row r="12" ht="86.4" spans="2:7">
       <c r="B12" s="12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
-    <row r="13" ht="105" spans="2:7">
+    <row r="13" ht="100.8" spans="2:7">
       <c r="B13" s="12" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
-    <row r="14" ht="75" spans="2:6">
+    <row r="14" ht="72" spans="2:6">
       <c r="B14" s="12" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
-    <row r="15" ht="135" spans="2:7">
+    <row r="15" ht="115.2" spans="2:7">
       <c r="B15" s="12" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
-    <row r="16" ht="60" spans="2:6">
+    <row r="16" ht="57.6" spans="2:6">
       <c r="B16" s="12" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
-    <row r="17" ht="60" spans="2:6">
+    <row r="17" ht="57.6" spans="2:6">
       <c r="B17" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>724</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="2:6">
+      <c r="B18" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>728</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="19" ht="57.6" spans="2:6">
+      <c r="B19" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="D17" s="48" t="s">
-        <v>723</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>724</v>
-      </c>
     </row>
-    <row r="18" ht="45" spans="2:6">
-      <c r="B18" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>727</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>728</v>
+    <row r="20" ht="43.2" spans="2:6">
+      <c r="B20" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>721</v>
       </c>
     </row>
-    <row r="19" ht="60" spans="2:6">
-      <c r="B19" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>720</v>
+    <row r="21" ht="129.6" spans="2:7">
+      <c r="B21" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>739</v>
       </c>
     </row>
-    <row r="20" ht="45" spans="2:6">
-      <c r="B20" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>720</v>
+    <row r="22" ht="72" spans="2:6">
+      <c r="B22" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>743</v>
       </c>
     </row>
-    <row r="21" ht="135" spans="2:7">
-      <c r="B21" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>738</v>
+    <row r="23" ht="144" spans="2:7">
+      <c r="B23" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>746</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>748</v>
       </c>
     </row>
-    <row r="22" ht="90" spans="2:6">
-      <c r="B22" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>742</v>
+    <row r="24" ht="100.8" spans="2:7">
+      <c r="B24" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>753</v>
       </c>
     </row>
-    <row r="23" ht="150" spans="2:7">
-      <c r="B23" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>747</v>
+    <row r="25" ht="57.6" spans="2:6">
+      <c r="B25" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>757</v>
       </c>
     </row>
-    <row r="24" ht="105" spans="2:7">
-      <c r="B24" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>752</v>
+    <row r="26" ht="100.8" spans="2:7">
+      <c r="B26" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>762</v>
       </c>
     </row>
-    <row r="25" ht="60" spans="2:6">
-      <c r="B25" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>756</v>
+    <row r="27" ht="86.4" spans="2:7">
+      <c r="B27" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>767</v>
       </c>
     </row>
-    <row r="26" ht="120" spans="2:7">
-      <c r="B26" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>761</v>
+    <row r="28" ht="28.8" spans="2:7">
+      <c r="B28" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>770</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>772</v>
       </c>
     </row>
-    <row r="27" ht="90" spans="2:7">
-      <c r="B27" s="12" t="s">
-        <v>762</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>765</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>766</v>
+    <row r="29" ht="57.6" spans="2:6">
+      <c r="B29" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>775</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>776</v>
       </c>
     </row>
-    <row r="28" ht="45" spans="2:7">
-      <c r="B28" s="12" t="s">
-        <v>767</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>769</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>771</v>
+    <row r="30" ht="86.4" spans="2:7">
+      <c r="B30" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>779</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="29" ht="75" spans="2:6">
-      <c r="B29" s="12" t="s">
-        <v>772</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>774</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="30" ht="90" spans="2:7">
-      <c r="B30" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>778</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>779</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="31" ht="135" spans="2:4">
+    <row r="31" ht="100.8" spans="2:4">
       <c r="B31" s="12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="2:4">
       <c r="B32" s="12" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
-    <row r="33" ht="30" spans="2:4">
+    <row r="33" ht="28.8" spans="2:4">
       <c r="B33" s="12" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D33" s="49"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="12" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D34" s="49"/>
     </row>
-    <row r="35" ht="75" spans="2:6">
+    <row r="35" ht="72" spans="2:6">
       <c r="B35" s="12" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
-    <row r="36" ht="90" spans="2:7">
+    <row r="36" ht="57.6" spans="2:7">
       <c r="B36" s="12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="37" ht="75" spans="2:6">
+    <row r="37" ht="72" spans="2:6">
       <c r="B37" s="12" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
-    <row r="38" ht="90" spans="2:7">
+    <row r="38" ht="86.4" spans="2:7">
       <c r="B38" s="12" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -34581,25 +34543,25 @@
       <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.7047619047619" style="12" customWidth="1"/>
-    <col min="2" max="2" width="17.847619047619" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19.7037037037037" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.8518518518519" style="13" customWidth="1"/>
     <col min="3" max="3" width="27" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.5619047619048" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.4285714285714" style="14" customWidth="1"/>
-    <col min="6" max="6" width="34.4380952380952" style="15" customWidth="1"/>
-    <col min="7" max="7" width="35.7142857142857" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.247619047619" style="5" customWidth="1"/>
-    <col min="9" max="1024" width="9.14285714285714" style="5"/>
+    <col min="4" max="4" width="39.5648148148148" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.4259259259259" style="14" customWidth="1"/>
+    <col min="6" max="6" width="34.4351851851852" style="15" customWidth="1"/>
+    <col min="7" max="7" width="35.712962962963" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="5" customWidth="1"/>
+    <col min="9" max="1024" width="9.13888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -34608,7 +34570,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>4</v>
@@ -34616,1418 +34578,1418 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
-    <row r="3" ht="270" spans="1:7">
+    <row r="3" ht="244.8" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="4" ht="105" spans="1:6">
+    <row r="4" ht="86.4" spans="1:6">
       <c r="A4" s="12" t="s">
         <v>232</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="6" ht="150" spans="1:7">
+    <row r="6" ht="144" spans="1:7">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
       <c r="D6" s="23" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="15" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:6">
+    <row r="7" ht="28.8" spans="1:6">
       <c r="A7" s="12" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" ht="150" customHeight="1" spans="1:6">
       <c r="A8" s="12" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:5">
+    <row r="9" ht="28.8" spans="1:5">
       <c r="A9" s="12" t="s">
         <v>542</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" ht="75" spans="1:7">
+    <row r="10" ht="57.6" spans="1:7">
       <c r="A10" s="12" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="15" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:5">
+    <row r="11" ht="28.8" spans="1:5">
       <c r="A11" s="12" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" ht="75" spans="1:6">
+    <row r="12" ht="72" spans="1:6">
       <c r="A12" s="12" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
-    <row r="13" ht="90" spans="1:6">
+    <row r="13" ht="72" spans="1:6">
       <c r="A13" s="12" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
-    <row r="14" ht="45" spans="1:6">
+    <row r="14" ht="43.2" spans="1:6">
       <c r="A14" s="12" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
-    <row r="15" ht="90" spans="1:6">
+    <row r="15" ht="86.4" spans="1:6">
       <c r="A15" s="12" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="1:4">
+    <row r="16" ht="28.8" spans="1:4">
       <c r="A16" s="12" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:6">
+    <row r="17" ht="28.8" spans="2:6">
       <c r="B17" s="13" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="2:6">
+    <row r="18" ht="28.8" spans="2:6">
       <c r="B18" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="2:6">
+      <c r="B19" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>868</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>870</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>871</v>
-      </c>
     </row>
-    <row r="19" ht="30" spans="2:6">
-      <c r="B19" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>874</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>867</v>
+    <row r="20" ht="28.8" spans="2:4">
+      <c r="B20" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>878</v>
       </c>
     </row>
-    <row r="20" ht="28.5" spans="2:4">
-      <c r="B20" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>877</v>
+    <row r="21" ht="86.4" spans="2:6">
+      <c r="B21" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>882</v>
       </c>
     </row>
-    <row r="21" ht="85.5" spans="2:6">
-      <c r="B21" s="13" t="s">
-        <v>878</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>880</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>881</v>
+    <row r="22" ht="72" spans="2:7">
+      <c r="B22" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>885</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>886</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>887</v>
       </c>
     </row>
-    <row r="22" ht="71.25" spans="2:7">
-      <c r="B22" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>884</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>885</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="23" ht="30" spans="2:7">
+    <row r="23" ht="28.8" spans="2:7">
       <c r="B23" s="13" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" ht="45" spans="2:7">
+    <row r="24" ht="43.2" spans="2:7">
       <c r="B24" s="13" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" ht="105" spans="1:7">
+    <row r="25" ht="100.8" spans="1:7">
       <c r="A25" s="12" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
-    <row r="26" ht="45" spans="1:6">
+    <row r="26" ht="43.2" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
-    <row r="27" ht="90" spans="1:7">
+    <row r="27" ht="72" spans="1:7">
       <c r="A27" s="12" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
-    <row r="28" ht="165" spans="1:7">
+    <row r="28" ht="158.4" spans="1:7">
       <c r="A28" s="12" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
-    <row r="29" ht="28.5" spans="1:7">
+    <row r="29" ht="28.8" spans="1:7">
       <c r="A29" s="12" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D30" s="12"/>
       <c r="G30" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
-    <row r="31" ht="30" spans="1:7">
+    <row r="31" ht="28.8" spans="1:7">
       <c r="A31" s="12" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D31" s="12"/>
       <c r="G31" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
-    <row r="32" ht="75" spans="1:7">
+    <row r="32" ht="72" spans="1:7">
       <c r="A32" s="12" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
-    <row r="35" ht="28.5" spans="1:7">
+    <row r="35" ht="28.8" spans="1:7">
       <c r="A35" s="12" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
-    <row r="36" ht="30" spans="1:7">
+    <row r="36" ht="28.8" spans="1:7">
       <c r="A36" s="12" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
-    <row r="37" ht="30" spans="1:7">
+    <row r="37" ht="28.8" spans="1:7">
       <c r="A37" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>938</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>935</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>937</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>938</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>934</v>
-      </c>
     </row>
-    <row r="38" ht="45" spans="1:7">
+    <row r="38" ht="43.2" spans="1:7">
       <c r="A38" s="12" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D38" s="29"/>
       <c r="F38" s="25" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" ht="105" spans="1:7">
+    <row r="39" ht="86.4" spans="1:7">
       <c r="A39" s="12" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
-    <row r="40" ht="45" spans="1:6">
+    <row r="40" ht="43.2" spans="1:6">
       <c r="A40" s="12" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
-    <row r="41" ht="240" spans="1:6">
+    <row r="41" ht="230.4" spans="1:6">
       <c r="A41" s="12" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
-    <row r="42" ht="225" spans="1:6">
+    <row r="42" ht="201.6" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
-    <row r="43" ht="105" spans="1:7">
+    <row r="43" ht="100.8" spans="1:7">
       <c r="A43" s="12" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
-    <row r="44" ht="120" spans="1:7">
+    <row r="44" ht="115.2" spans="1:7">
       <c r="A44" s="12" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>967</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="45" ht="43.2" spans="1:6">
+      <c r="A45" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>971</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="46" ht="57.6" spans="1:6">
+      <c r="A46" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="47" ht="57.6" spans="1:6">
+      <c r="A47" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>979</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="48" ht="43.2" spans="1:5">
+      <c r="A48" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>983</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="49" ht="72" spans="1:6">
+      <c r="A49" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>986</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="50" ht="43.2" spans="1:6">
+      <c r="A50" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="51" ht="43.2" spans="1:6">
+      <c r="A51" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" spans="1:6">
+      <c r="A52" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>998</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="53" ht="57.6" spans="1:6">
+      <c r="A53" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="54" ht="57.6" spans="1:6">
+      <c r="A54" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="55" ht="187.2" spans="1:6">
+      <c r="A55" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="56" ht="57.6" spans="1:6">
+      <c r="A56" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="57" ht="57.6" spans="1:7">
+      <c r="A57" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="58" ht="86.4" spans="1:7">
+      <c r="A58" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="59" ht="57.6" spans="1:7">
+      <c r="A59" s="12" t="s">
         <v>963</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>964</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>965</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>966</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="45" ht="45" spans="1:6">
-      <c r="A45" s="12" t="s">
-        <v>968</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>970</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="46" ht="60" spans="1:6">
-      <c r="A46" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>973</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="47" ht="60" spans="1:6">
-      <c r="A47" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>978</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="48" ht="45" spans="1:5">
-      <c r="A48" s="12" t="s">
-        <v>980</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>982</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="49" ht="90" spans="1:6">
-      <c r="A49" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>984</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>985</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="50" ht="60" spans="1:6">
-      <c r="A50" s="12" t="s">
-        <v>987</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>989</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="51" ht="45" spans="1:6">
-      <c r="A51" s="12" t="s">
-        <v>991</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>993</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="52" ht="45" spans="1:6">
-      <c r="A52" s="12" t="s">
-        <v>995</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>997</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="53" ht="60" spans="1:6">
-      <c r="A53" s="12" t="s">
-        <v>999</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="54" ht="60" spans="1:6">
-      <c r="A54" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="55" ht="210" spans="1:6">
-      <c r="A55" s="12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="56" ht="60" spans="1:6">
-      <c r="A56" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="57" ht="60" spans="1:7">
-      <c r="A57" s="12" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="58" ht="90" spans="1:7">
-      <c r="A58" s="12" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="59" ht="60" spans="1:7">
-      <c r="A59" s="12" t="s">
-        <v>962</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" ht="60" spans="1:6">
+    <row r="60" ht="43.2" spans="1:6">
       <c r="A60" s="12" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
-    <row r="61" ht="225" spans="1:6">
+    <row r="61" ht="216" spans="1:6">
       <c r="A61" s="12" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
-    <row r="62" ht="30" spans="1:6">
+    <row r="62" ht="28.8" spans="1:6">
       <c r="A62" s="12" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
-    <row r="63" ht="225" spans="1:7">
+    <row r="63" ht="201.6" spans="1:7">
       <c r="A63" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
-    <row r="64" ht="60" spans="1:6">
+    <row r="64" ht="57.6" spans="1:6">
       <c r="A64" s="12" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
-    <row r="65" ht="90" spans="1:7">
+    <row r="65" ht="86.4" spans="1:7">
       <c r="A65" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
-    <row r="66" ht="75" spans="1:7">
+    <row r="66" ht="72" spans="1:7">
       <c r="A66" s="12" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
-    <row r="67" ht="45" spans="1:6">
+    <row r="67" ht="43.2" spans="1:6">
       <c r="A67" s="12" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
-    <row r="68" ht="90" spans="1:6">
+    <row r="68" ht="86.4" spans="1:6">
       <c r="A68" s="12" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
-    <row r="69" ht="30" spans="1:4">
+    <row r="69" ht="28.8" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
-    <row r="70" ht="195" spans="1:6">
+    <row r="70" ht="187.2" spans="1:6">
       <c r="A70" s="12" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
-    <row r="71" ht="195" spans="1:6">
+    <row r="71" ht="187.2" spans="1:6">
       <c r="A71" s="12" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
-    <row r="72" ht="270" spans="1:7">
+    <row r="72" ht="259.2" spans="1:7">
       <c r="A72" s="33" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" ht="150" spans="1:7">
+    <row r="73" ht="144" spans="1:7">
       <c r="A73" s="33" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="15" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" ht="45" spans="1:7">
+    <row r="74" ht="43.2" spans="1:7">
       <c r="A74" s="33" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" ht="30" spans="1:7">
+    <row r="75" ht="28.8" spans="1:7">
       <c r="A75" s="33" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D75" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="76" ht="43.2" spans="1:7">
+      <c r="A76" s="36" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>1091</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>1092</v>
+      <c r="D76" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>1097</v>
       </c>
     </row>
-    <row r="76" ht="45" spans="1:7">
-      <c r="A76" s="36" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="77" ht="120" spans="1:7">
+    <row r="77" ht="115.2" spans="1:7">
       <c r="A77" s="33" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="78" ht="40" customHeight="1" spans="1:7">
       <c r="A78" s="33" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G78" s="24"/>
     </row>
-    <row r="79" ht="165" spans="1:6">
+    <row r="79" ht="158.4" spans="1:6">
       <c r="A79" s="12" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
-    <row r="80" ht="135" spans="1:6">
+    <row r="80" ht="115.2" spans="1:6">
       <c r="A80" s="12" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
-    <row r="81" ht="30" spans="1:6">
+    <row r="81" spans="1:6">
       <c r="A81" s="12" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
-    <row r="82" ht="45" spans="1:6">
+    <row r="82" ht="43.2" spans="1:6">
       <c r="A82" s="12" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
-    <row r="83" ht="30" spans="1:6">
+    <row r="83" ht="28.8" spans="1:6">
       <c r="A83" s="12" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="84" ht="216" spans="1:7">
+    <row r="84" ht="208.8" spans="1:7">
       <c r="A84" s="12" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F84" s="37" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
-    <row r="85" ht="165" spans="1:7">
+    <row r="85" ht="144" spans="1:7">
       <c r="A85" s="12" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
-    <row r="86" ht="45" spans="2:4">
+    <row r="86" ht="43.2" spans="2:4">
       <c r="B86" s="13" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
-    <row r="87" ht="45" spans="2:6">
+    <row r="87" ht="43.2" spans="2:6">
       <c r="B87" s="13" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
-    <row r="88" ht="45" spans="2:7">
+    <row r="88" ht="28.8" spans="2:7">
       <c r="B88" s="13" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G88" s="40"/>
     </row>
-    <row r="89" ht="30" spans="2:7">
+    <row r="89" ht="28.8" spans="2:7">
       <c r="B89" s="13" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F89" s="37" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="G89" s="40"/>
     </row>
-    <row r="90" ht="42.75" spans="2:7">
+    <row r="90" ht="28.8" spans="2:7">
       <c r="B90" s="13" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F90" s="37" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G90" s="40"/>
     </row>
-    <row r="91" ht="135" spans="2:6">
+    <row r="91" ht="115.2" spans="2:6">
       <c r="B91" s="13" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F91" s="37" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
-    <row r="92" ht="117" spans="2:6">
+    <row r="92" ht="111.6" spans="2:6">
       <c r="B92" s="13" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F92" s="37" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
-    <row r="93" ht="135" spans="1:8">
+    <row r="93" ht="129.6" spans="1:8">
       <c r="A93" s="12" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F93" s="37" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="H93" s="41" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
-    <row r="94" ht="165" spans="1:8">
+    <row r="94" ht="144" spans="1:8">
       <c r="A94" s="12" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F94" s="37" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H94" s="14"/>
     </row>
-    <row r="95" ht="75" spans="1:8">
+    <row r="95" ht="57.6" spans="1:8">
       <c r="A95" s="12" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="H95" s="43" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
-    <row r="96" ht="90" spans="1:7">
+    <row r="96" ht="86.4" spans="1:7">
       <c r="A96" s="12" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D96" s="42" t="s">
         <v>1180</v>
       </c>
-      <c r="D96" s="42" t="s">
-        <v>1179</v>
-      </c>
       <c r="F96" s="15" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
-    <row r="97" ht="45" spans="1:3">
+    <row r="97" ht="43.2" spans="1:3">
       <c r="A97" s="12" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
   </sheetData>
@@ -36058,24 +36020,24 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.5619047619048" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.1428571428571" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.4285714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.2857142857143" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.712962962963" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5648148148148" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.1388888888889" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.4259259259259" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.287037037037" style="4" customWidth="1"/>
     <col min="6" max="6" width="24" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.1428571428571" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="9.14285714285714" style="5"/>
+    <col min="7" max="7" width="22.1388888888889" style="4" customWidth="1"/>
+    <col min="8" max="1024" width="9.13888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -36084,269 +36046,269 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="75" spans="1:6">
+    <row r="2" ht="72" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
-    <row r="3" ht="45" spans="1:7">
+    <row r="3" ht="28.8" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
-    <row r="8" ht="90" spans="1:7">
+    <row r="8" ht="86.4" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
-    <row r="9" ht="90" spans="1:6">
+    <row r="9" ht="72" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
-    <row r="10" ht="60" spans="1:6">
+    <row r="10" ht="57.6" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="1:4">
+    <row r="12" ht="28.8" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
-    <row r="13" ht="90" spans="1:7">
+    <row r="13" ht="72" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
-    <row r="14" ht="45" spans="1:7">
+    <row r="14" ht="43.2" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
-    <row r="16" ht="105" spans="1:7">
+    <row r="16" ht="100.8" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>259</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
-    <row r="17" ht="105" spans="1:7">
+    <row r="17" ht="100.8" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
-    <row r="18" ht="90" spans="1:6">
+    <row r="18" ht="72" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="1:6">
+    <row r="19" ht="28.8" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
   </sheetData>
@@ -36370,24 +36332,24 @@
       <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13333333333333" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.7142857142857" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7142857142857" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.712962962963" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.712962962963" style="3" customWidth="1"/>
     <col min="3" max="3" width="23" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.152380952381" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.2857142857143" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.5714285714286" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.1481481481481" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.287037037037" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.5740740740741" style="4" customWidth="1"/>
     <col min="7" max="7" width="18" style="4" customWidth="1"/>
-    <col min="8" max="1024" width="9.14285714285714" style="5"/>
+    <col min="8" max="1024" width="9.13888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -36396,77 +36358,77 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" ht="28.8" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
-    <row r="3" ht="30" spans="1:3">
+    <row r="3" ht="28.8" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
-    <row r="4" ht="45" spans="1:3">
+    <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
-    <row r="5" ht="45" spans="1:6">
+    <row r="5" ht="28.8" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
-    <row r="6" ht="75" spans="1:6">
+    <row r="6" ht="72" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
-    <row r="7" ht="45" spans="1:6">
+    <row r="7" ht="43.2" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -36474,399 +36436,399 @@
         <v>547</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:6">
+    <row r="9" ht="43.2" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
-    <row r="10" ht="60" spans="2:3">
+    <row r="10" ht="57.6" spans="2:3">
       <c r="B10" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
-    <row r="11" ht="45" spans="2:3">
+    <row r="11" ht="43.2" spans="2:3">
       <c r="B11" s="3" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
-    <row r="12" ht="45" spans="1:7">
+    <row r="12" ht="43.2" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
-    <row r="13" ht="60" spans="1:6">
+    <row r="13" ht="57.6" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
-    <row r="14" ht="180" spans="1:6">
+    <row r="14" ht="158.4" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
-    <row r="15" ht="60" spans="1:3">
+    <row r="15" ht="43.2" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
-    <row r="16" ht="75" spans="2:6">
+    <row r="16" ht="57.6" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
-    <row r="17" ht="45" spans="2:6">
+    <row r="17" ht="43.2" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
-    <row r="19" ht="165" spans="1:7">
+    <row r="19" ht="158.4" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="1:3">
+    <row r="20" ht="28.8" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="1:4">
+    <row r="21" ht="28.8" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
-    <row r="22" ht="30" spans="1:3">
+    <row r="22" ht="28.8" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
-    <row r="23" ht="30" spans="2:4">
+    <row r="23" ht="28.8" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
-    <row r="24" ht="30" spans="1:4">
+    <row r="24" ht="28.8" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
-    <row r="25" ht="30" spans="1:4">
+    <row r="25" ht="28.8" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
-    <row r="26" ht="45" spans="1:7">
+    <row r="26" ht="43.2" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
-    <row r="27" ht="135" spans="1:7">
+    <row r="27" ht="129.6" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
-    <row r="28" ht="90" spans="1:7">
+    <row r="28" ht="86.4" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
-    <row r="29" ht="60" spans="1:6">
+    <row r="29" ht="57.6" spans="1:6">
       <c r="A29" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
-    <row r="30" ht="135" spans="1:7">
+    <row r="30" ht="129.6" spans="1:7">
       <c r="A30" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>1344</v>
-      </c>
     </row>
-    <row r="31" ht="30" spans="1:6">
+    <row r="31" ht="28.8" spans="1:6">
       <c r="A31" s="2" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
-    <row r="32" ht="45" spans="1:6">
+    <row r="32" ht="43.2" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
-    <row r="33" ht="270" spans="2:7">
+    <row r="33" ht="244.8" spans="2:7">
       <c r="B33" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>1355</v>
-      </c>
       <c r="F33" s="9" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
-    <row r="34" ht="45" spans="2:4">
+    <row r="34" ht="43.2" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
-    <row r="35" ht="75" spans="2:7">
+    <row r="35" ht="57.6" spans="2:7">
       <c r="B35" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
-    <row r="36" ht="60" spans="2:6">
+    <row r="36" ht="57.6" spans="2:6">
       <c r="B36" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
-    <row r="37" ht="120" spans="1:6">
+    <row r="37" ht="100.8" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
-    <row r="38" ht="210" spans="1:7">
+    <row r="38" ht="158.4" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
-    <row r="39" ht="195" spans="1:7">
+    <row r="39" ht="172.8" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
   </sheetData>
